--- a/02_RAW-Data/ICBF_SRPA.xlsx
+++ b/02_RAW-Data/ICBF_SRPA.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Documents/GitHub/Ninez-YA/02_RAW-Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626679DA-9D58-9C43-B991-D319D45DE3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3979E80-2EE8-B54F-80C8-26BBCF779E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11200" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="4" xr2:uid="{4661A564-048E-C141-BA35-1075A9EF5C19}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="3" xr2:uid="{4661A564-048E-C141-BA35-1075A9EF5C19}"/>
   </bookViews>
   <sheets>
     <sheet name="SRPA_1" sheetId="1" r:id="rId1"/>
     <sheet name="SRPA_2" sheetId="2" r:id="rId2"/>
     <sheet name="Punto_1" sheetId="4" r:id="rId3"/>
-    <sheet name="base" sheetId="5" r:id="rId4"/>
-    <sheet name="educacion" sheetId="6" r:id="rId5"/>
+    <sheet name="trabajo" sheetId="7" r:id="rId4"/>
+    <sheet name="base" sheetId="5" r:id="rId5"/>
+    <sheet name="educacion" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4309" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4522" uniqueCount="312">
   <si>
     <t>Departamento</t>
   </si>
@@ -29431,6 +29432,3918 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F27053-BE83-0141-A2D4-BF8A47456F0A}">
+  <dimension ref="A1:J213"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="40.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>2015</v>
+      </c>
+      <c r="C1">
+        <v>2016</v>
+      </c>
+      <c r="D1">
+        <v>2017</v>
+      </c>
+      <c r="E1">
+        <v>2018</v>
+      </c>
+      <c r="F1">
+        <v>2019</v>
+      </c>
+      <c r="G1">
+        <v>2020</v>
+      </c>
+      <c r="H1">
+        <v>2021</v>
+      </c>
+      <c r="I1">
+        <v>2022</v>
+      </c>
+      <c r="J1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>26</v>
+      </c>
+      <c r="H4">
+        <v>34</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>7</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>62</v>
+      </c>
+      <c r="C23">
+        <v>65</v>
+      </c>
+      <c r="D23">
+        <v>52</v>
+      </c>
+      <c r="E23">
+        <v>109</v>
+      </c>
+      <c r="F23">
+        <v>84</v>
+      </c>
+      <c r="G23">
+        <v>97</v>
+      </c>
+      <c r="H23">
+        <v>89</v>
+      </c>
+      <c r="I23">
+        <v>108</v>
+      </c>
+      <c r="J23">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26">
+        <v>61</v>
+      </c>
+      <c r="C26">
+        <v>58</v>
+      </c>
+      <c r="D26">
+        <v>40</v>
+      </c>
+      <c r="E26">
+        <v>56</v>
+      </c>
+      <c r="F26">
+        <v>45</v>
+      </c>
+      <c r="G26">
+        <v>56</v>
+      </c>
+      <c r="H26">
+        <v>28</v>
+      </c>
+      <c r="I26">
+        <v>61</v>
+      </c>
+      <c r="J26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>41</v>
+      </c>
+      <c r="F27">
+        <v>33</v>
+      </c>
+      <c r="G27">
+        <v>35</v>
+      </c>
+      <c r="H27">
+        <v>56</v>
+      </c>
+      <c r="I27">
+        <v>41</v>
+      </c>
+      <c r="J27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>8</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30">
+        <v>16</v>
+      </c>
+      <c r="C30">
+        <v>42</v>
+      </c>
+      <c r="D30">
+        <v>15</v>
+      </c>
+      <c r="E30">
+        <v>47</v>
+      </c>
+      <c r="F30">
+        <v>33</v>
+      </c>
+      <c r="G30">
+        <v>22</v>
+      </c>
+      <c r="H30">
+        <v>31</v>
+      </c>
+      <c r="I30">
+        <v>23</v>
+      </c>
+      <c r="J30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="H33">
+        <v>6</v>
+      </c>
+      <c r="I33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>7</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>6</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>6</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>109</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39">
+        <v>7</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>120</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>7</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49">
+        <v>23</v>
+      </c>
+      <c r="C49">
+        <v>93</v>
+      </c>
+      <c r="D49">
+        <v>71</v>
+      </c>
+      <c r="E49">
+        <v>123</v>
+      </c>
+      <c r="F49">
+        <v>87</v>
+      </c>
+      <c r="G49">
+        <v>95</v>
+      </c>
+      <c r="H49">
+        <v>138</v>
+      </c>
+      <c r="I49">
+        <v>78</v>
+      </c>
+      <c r="J49">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51">
+        <v>48</v>
+      </c>
+      <c r="D51">
+        <v>68</v>
+      </c>
+      <c r="E51">
+        <v>47</v>
+      </c>
+      <c r="F51">
+        <v>29</v>
+      </c>
+      <c r="G51">
+        <v>31</v>
+      </c>
+      <c r="H51">
+        <v>39</v>
+      </c>
+      <c r="I51">
+        <v>12</v>
+      </c>
+      <c r="J51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>123</v>
+      </c>
+      <c r="B52">
+        <v>19</v>
+      </c>
+      <c r="C52">
+        <v>6</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>18</v>
+      </c>
+      <c r="F52">
+        <v>19</v>
+      </c>
+      <c r="G52">
+        <v>34</v>
+      </c>
+      <c r="H52">
+        <v>40</v>
+      </c>
+      <c r="I52">
+        <v>24</v>
+      </c>
+      <c r="J52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>124</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>125</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>31</v>
+      </c>
+      <c r="E54">
+        <v>55</v>
+      </c>
+      <c r="F54">
+        <v>37</v>
+      </c>
+      <c r="G54">
+        <v>27</v>
+      </c>
+      <c r="H54">
+        <v>52</v>
+      </c>
+      <c r="I54">
+        <v>41</v>
+      </c>
+      <c r="J54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>128</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <v>4</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58">
+        <v>5</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+      <c r="J58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>131</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>4</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>134</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>136</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>137</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>138</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>139</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>140</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67">
+        <v>14</v>
+      </c>
+      <c r="C67">
+        <v>35</v>
+      </c>
+      <c r="D67">
+        <v>18</v>
+      </c>
+      <c r="E67">
+        <v>10</v>
+      </c>
+      <c r="F67">
+        <v>3</v>
+      </c>
+      <c r="G67">
+        <v>5</v>
+      </c>
+      <c r="H67">
+        <v>7</v>
+      </c>
+      <c r="I67">
+        <v>7</v>
+      </c>
+      <c r="J67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>142</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>143</v>
+      </c>
+      <c r="B69">
+        <v>12</v>
+      </c>
+      <c r="C69">
+        <v>27</v>
+      </c>
+      <c r="D69">
+        <v>13</v>
+      </c>
+      <c r="E69">
+        <v>4</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <v>2</v>
+      </c>
+      <c r="H69">
+        <v>2</v>
+      </c>
+      <c r="I69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>144</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>7</v>
+      </c>
+      <c r="D70">
+        <v>5</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+      <c r="H70">
+        <v>2</v>
+      </c>
+      <c r="J70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>79</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>81</v>
+      </c>
+      <c r="H72">
+        <v>2</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>145</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75">
+        <v>19</v>
+      </c>
+      <c r="C75">
+        <v>13</v>
+      </c>
+      <c r="D75">
+        <v>12</v>
+      </c>
+      <c r="E75">
+        <v>17</v>
+      </c>
+      <c r="F75">
+        <v>10</v>
+      </c>
+      <c r="G75">
+        <v>11</v>
+      </c>
+      <c r="H75">
+        <v>5</v>
+      </c>
+      <c r="I75">
+        <v>3</v>
+      </c>
+      <c r="J75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>147</v>
+      </c>
+      <c r="B76">
+        <v>18</v>
+      </c>
+      <c r="C76">
+        <v>13</v>
+      </c>
+      <c r="D76">
+        <v>12</v>
+      </c>
+      <c r="E76">
+        <v>14</v>
+      </c>
+      <c r="F76">
+        <v>4</v>
+      </c>
+      <c r="G76">
+        <v>7</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>6</v>
+      </c>
+      <c r="G77">
+        <v>4</v>
+      </c>
+      <c r="H77">
+        <v>4</v>
+      </c>
+      <c r="I77">
+        <v>2</v>
+      </c>
+      <c r="J77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>149</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>38</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>2</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>151</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>153</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>2</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>19</v>
+      </c>
+      <c r="B82">
+        <v>5</v>
+      </c>
+      <c r="C82">
+        <v>5</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82">
+        <v>3</v>
+      </c>
+      <c r="F82">
+        <v>10</v>
+      </c>
+      <c r="G82">
+        <v>2</v>
+      </c>
+      <c r="J82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>155</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+      <c r="J83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>156</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>157</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>158</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>144</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+      <c r="F87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>159</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>3</v>
+      </c>
+      <c r="F88">
+        <v>3</v>
+      </c>
+      <c r="G88">
+        <v>2</v>
+      </c>
+      <c r="J88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>160</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>20</v>
+      </c>
+      <c r="B90">
+        <v>231</v>
+      </c>
+      <c r="C90">
+        <v>236</v>
+      </c>
+      <c r="D90">
+        <v>236</v>
+      </c>
+      <c r="E90">
+        <v>270</v>
+      </c>
+      <c r="F90">
+        <v>285</v>
+      </c>
+      <c r="G90">
+        <v>459</v>
+      </c>
+      <c r="H90">
+        <v>383</v>
+      </c>
+      <c r="I90">
+        <v>322</v>
+      </c>
+      <c r="J90">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>162</v>
+      </c>
+      <c r="B91">
+        <v>101</v>
+      </c>
+      <c r="C91">
+        <v>114</v>
+      </c>
+      <c r="D91">
+        <v>121</v>
+      </c>
+      <c r="E91">
+        <v>147</v>
+      </c>
+      <c r="F91">
+        <v>111</v>
+      </c>
+      <c r="G91">
+        <v>100</v>
+      </c>
+      <c r="H91">
+        <v>112</v>
+      </c>
+      <c r="I91">
+        <v>87</v>
+      </c>
+      <c r="J91">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>163</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>164</v>
+      </c>
+      <c r="B93">
+        <v>67</v>
+      </c>
+      <c r="C93">
+        <v>91</v>
+      </c>
+      <c r="D93">
+        <v>80</v>
+      </c>
+      <c r="E93">
+        <v>41</v>
+      </c>
+      <c r="F93">
+        <v>72</v>
+      </c>
+      <c r="G93">
+        <v>177</v>
+      </c>
+      <c r="H93">
+        <v>148</v>
+      </c>
+      <c r="I93">
+        <v>163</v>
+      </c>
+      <c r="J93">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>165</v>
+      </c>
+      <c r="B94">
+        <v>63</v>
+      </c>
+      <c r="C94">
+        <v>29</v>
+      </c>
+      <c r="D94">
+        <v>34</v>
+      </c>
+      <c r="E94">
+        <v>82</v>
+      </c>
+      <c r="F94">
+        <v>102</v>
+      </c>
+      <c r="G94">
+        <v>182</v>
+      </c>
+      <c r="H94">
+        <v>123</v>
+      </c>
+      <c r="I94">
+        <v>72</v>
+      </c>
+      <c r="J94">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>166</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>23</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>3</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+      <c r="G96">
+        <v>4</v>
+      </c>
+      <c r="H96">
+        <v>2</v>
+      </c>
+      <c r="I96">
+        <v>2</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>169</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="G97">
+        <v>4</v>
+      </c>
+      <c r="H97">
+        <v>2</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>170</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>171</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>21</v>
+      </c>
+      <c r="B100">
+        <v>642</v>
+      </c>
+      <c r="C100">
+        <v>500</v>
+      </c>
+      <c r="D100">
+        <v>496</v>
+      </c>
+      <c r="E100">
+        <v>546</v>
+      </c>
+      <c r="F100">
+        <v>403</v>
+      </c>
+      <c r="G100">
+        <v>166</v>
+      </c>
+      <c r="H100">
+        <v>409</v>
+      </c>
+      <c r="I100">
+        <v>247</v>
+      </c>
+      <c r="J100">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>173</v>
+      </c>
+      <c r="B101">
+        <v>214</v>
+      </c>
+      <c r="C101">
+        <v>116</v>
+      </c>
+      <c r="D101">
+        <v>179</v>
+      </c>
+      <c r="E101">
+        <v>203</v>
+      </c>
+      <c r="F101">
+        <v>38</v>
+      </c>
+      <c r="G101">
+        <v>35</v>
+      </c>
+      <c r="H101">
+        <v>59</v>
+      </c>
+      <c r="I101">
+        <v>58</v>
+      </c>
+      <c r="J101">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>174</v>
+      </c>
+      <c r="B102">
+        <v>182</v>
+      </c>
+      <c r="C102">
+        <v>92</v>
+      </c>
+      <c r="D102">
+        <v>32</v>
+      </c>
+      <c r="E102">
+        <v>68</v>
+      </c>
+      <c r="F102">
+        <v>45</v>
+      </c>
+      <c r="G102">
+        <v>2</v>
+      </c>
+      <c r="H102">
+        <v>111</v>
+      </c>
+      <c r="I102">
+        <v>7</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>175</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>176</v>
+      </c>
+      <c r="B104">
+        <v>116</v>
+      </c>
+      <c r="C104">
+        <v>185</v>
+      </c>
+      <c r="D104">
+        <v>171</v>
+      </c>
+      <c r="E104">
+        <v>159</v>
+      </c>
+      <c r="F104">
+        <v>127</v>
+      </c>
+      <c r="G104">
+        <v>67</v>
+      </c>
+      <c r="H104">
+        <v>149</v>
+      </c>
+      <c r="I104">
+        <v>129</v>
+      </c>
+      <c r="J104">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>177</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="F105">
+        <v>2</v>
+      </c>
+      <c r="I105">
+        <v>2</v>
+      </c>
+      <c r="J105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>178</v>
+      </c>
+      <c r="B106">
+        <v>87</v>
+      </c>
+      <c r="C106">
+        <v>59</v>
+      </c>
+      <c r="D106">
+        <v>91</v>
+      </c>
+      <c r="E106">
+        <v>98</v>
+      </c>
+      <c r="F106">
+        <v>111</v>
+      </c>
+      <c r="G106">
+        <v>44</v>
+      </c>
+      <c r="H106">
+        <v>65</v>
+      </c>
+      <c r="I106">
+        <v>37</v>
+      </c>
+      <c r="J106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>179</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>2</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>180</v>
+      </c>
+      <c r="B108">
+        <v>40</v>
+      </c>
+      <c r="C108">
+        <v>46</v>
+      </c>
+      <c r="D108">
+        <v>20</v>
+      </c>
+      <c r="E108">
+        <v>18</v>
+      </c>
+      <c r="F108">
+        <v>68</v>
+      </c>
+      <c r="G108">
+        <v>17</v>
+      </c>
+      <c r="H108">
+        <v>24</v>
+      </c>
+      <c r="I108">
+        <v>14</v>
+      </c>
+      <c r="J108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>181</v>
+      </c>
+      <c r="F109">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>22</v>
+      </c>
+      <c r="B110">
+        <v>10</v>
+      </c>
+      <c r="C110">
+        <v>9</v>
+      </c>
+      <c r="D110">
+        <v>23</v>
+      </c>
+      <c r="E110">
+        <v>19</v>
+      </c>
+      <c r="F110">
+        <v>6</v>
+      </c>
+      <c r="G110">
+        <v>7</v>
+      </c>
+      <c r="H110">
+        <v>5</v>
+      </c>
+      <c r="I110">
+        <v>7</v>
+      </c>
+      <c r="J110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>182</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>183</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>184</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113">
+        <v>3</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>185</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>186</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>187</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>188</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <v>2</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>189</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>7</v>
+      </c>
+      <c r="E118">
+        <v>2</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>190</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>191</v>
+      </c>
+      <c r="B120">
+        <v>7</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+      <c r="D120">
+        <v>7</v>
+      </c>
+      <c r="E120">
+        <v>7</v>
+      </c>
+      <c r="F120">
+        <v>2</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="I120">
+        <v>2</v>
+      </c>
+      <c r="J120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>192</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="I121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>193</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>194</v>
+      </c>
+      <c r="C123">
+        <v>3</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>195</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>3</v>
+      </c>
+      <c r="E124">
+        <v>4</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>42</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>198</v>
+      </c>
+      <c r="H126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>43</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>200</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>24</v>
+      </c>
+      <c r="B129">
+        <v>8</v>
+      </c>
+      <c r="C129">
+        <v>6</v>
+      </c>
+      <c r="D129">
+        <v>4</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>11</v>
+      </c>
+      <c r="G129">
+        <v>2</v>
+      </c>
+      <c r="H129">
+        <v>2</v>
+      </c>
+      <c r="I129">
+        <v>5</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>201</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>202</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <v>5</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>8</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>203</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>204</v>
+      </c>
+      <c r="B133">
+        <v>5</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>2</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>205</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>3</v>
+      </c>
+      <c r="I134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>53</v>
+      </c>
+      <c r="C135">
+        <v>2</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <v>3</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>208</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>209</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>211</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>2</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>27</v>
+      </c>
+      <c r="B139">
+        <v>2</v>
+      </c>
+      <c r="C139">
+        <v>5</v>
+      </c>
+      <c r="D139">
+        <v>4</v>
+      </c>
+      <c r="E139">
+        <v>16</v>
+      </c>
+      <c r="F139">
+        <v>12</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+      <c r="H139">
+        <v>5</v>
+      </c>
+      <c r="I139">
+        <v>5</v>
+      </c>
+      <c r="J139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>213</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>215</v>
+      </c>
+      <c r="C141">
+        <v>4</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>216</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>217</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="I143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>218</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>220</v>
+      </c>
+      <c r="H145">
+        <v>4</v>
+      </c>
+      <c r="J145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>221</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>2</v>
+      </c>
+      <c r="E146">
+        <v>5</v>
+      </c>
+      <c r="F146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>222</v>
+      </c>
+      <c r="E147">
+        <v>9</v>
+      </c>
+      <c r="F147">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>28</v>
+      </c>
+      <c r="B148">
+        <v>3</v>
+      </c>
+      <c r="C148">
+        <v>5</v>
+      </c>
+      <c r="D148">
+        <v>12</v>
+      </c>
+      <c r="E148">
+        <v>2</v>
+      </c>
+      <c r="F148">
+        <v>4</v>
+      </c>
+      <c r="G148">
+        <v>3</v>
+      </c>
+      <c r="H148">
+        <v>10</v>
+      </c>
+      <c r="J148">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>224</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>227</v>
+      </c>
+      <c r="B150">
+        <v>3</v>
+      </c>
+      <c r="C150">
+        <v>4</v>
+      </c>
+      <c r="D150">
+        <v>12</v>
+      </c>
+      <c r="E150">
+        <v>2</v>
+      </c>
+      <c r="F150">
+        <v>4</v>
+      </c>
+      <c r="G150">
+        <v>3</v>
+      </c>
+      <c r="H150">
+        <v>10</v>
+      </c>
+      <c r="J150">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>29</v>
+      </c>
+      <c r="B151">
+        <v>36</v>
+      </c>
+      <c r="C151">
+        <v>27</v>
+      </c>
+      <c r="D151">
+        <v>6</v>
+      </c>
+      <c r="E151">
+        <v>11</v>
+      </c>
+      <c r="F151">
+        <v>3</v>
+      </c>
+      <c r="G151">
+        <v>3</v>
+      </c>
+      <c r="H151">
+        <v>6</v>
+      </c>
+      <c r="I151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>229</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>230</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="G153">
+        <v>2</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>231</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>232</v>
+      </c>
+      <c r="B155">
+        <v>6</v>
+      </c>
+      <c r="C155">
+        <v>9</v>
+      </c>
+      <c r="D155">
+        <v>4</v>
+      </c>
+      <c r="E155">
+        <v>2</v>
+      </c>
+      <c r="F155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>233</v>
+      </c>
+      <c r="B156">
+        <v>12</v>
+      </c>
+      <c r="C156">
+        <v>6</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+      <c r="E156">
+        <v>7</v>
+      </c>
+      <c r="H156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>235</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <v>6</v>
+      </c>
+      <c r="H157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>236</v>
+      </c>
+      <c r="B158">
+        <v>17</v>
+      </c>
+      <c r="C158">
+        <v>5</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="G158">
+        <v>1</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>30</v>
+      </c>
+      <c r="B159">
+        <v>178</v>
+      </c>
+      <c r="C159">
+        <v>123</v>
+      </c>
+      <c r="D159">
+        <v>73</v>
+      </c>
+      <c r="E159">
+        <v>111</v>
+      </c>
+      <c r="F159">
+        <v>54</v>
+      </c>
+      <c r="G159">
+        <v>24</v>
+      </c>
+      <c r="H159">
+        <v>45</v>
+      </c>
+      <c r="I159">
+        <v>19</v>
+      </c>
+      <c r="J159">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>238</v>
+      </c>
+      <c r="B160">
+        <v>48</v>
+      </c>
+      <c r="C160">
+        <v>52</v>
+      </c>
+      <c r="D160">
+        <v>19</v>
+      </c>
+      <c r="E160">
+        <v>26</v>
+      </c>
+      <c r="F160">
+        <v>8</v>
+      </c>
+      <c r="G160">
+        <v>5</v>
+      </c>
+      <c r="H160">
+        <v>24</v>
+      </c>
+      <c r="J160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>239</v>
+      </c>
+      <c r="B161">
+        <v>101</v>
+      </c>
+      <c r="C161">
+        <v>45</v>
+      </c>
+      <c r="D161">
+        <v>40</v>
+      </c>
+      <c r="E161">
+        <v>28</v>
+      </c>
+      <c r="F161">
+        <v>24</v>
+      </c>
+      <c r="G161">
+        <v>6</v>
+      </c>
+      <c r="H161">
+        <v>13</v>
+      </c>
+      <c r="I161">
+        <v>2</v>
+      </c>
+      <c r="J161">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>240</v>
+      </c>
+      <c r="B162">
+        <v>29</v>
+      </c>
+      <c r="C162">
+        <v>26</v>
+      </c>
+      <c r="D162">
+        <v>14</v>
+      </c>
+      <c r="E162">
+        <v>57</v>
+      </c>
+      <c r="F162">
+        <v>20</v>
+      </c>
+      <c r="G162">
+        <v>10</v>
+      </c>
+      <c r="H162">
+        <v>3</v>
+      </c>
+      <c r="I162">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>241</v>
+      </c>
+      <c r="F163">
+        <v>2</v>
+      </c>
+      <c r="G163">
+        <v>3</v>
+      </c>
+      <c r="H163">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>242</v>
+      </c>
+      <c r="H164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>39</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="E165">
+        <v>3</v>
+      </c>
+      <c r="F165">
+        <v>1</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>245</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="E166">
+        <v>2</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>248</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>31</v>
+      </c>
+      <c r="B168">
+        <v>2</v>
+      </c>
+      <c r="C168">
+        <v>13</v>
+      </c>
+      <c r="D168">
+        <v>5</v>
+      </c>
+      <c r="E168">
+        <v>15</v>
+      </c>
+      <c r="F168">
+        <v>1</v>
+      </c>
+      <c r="G168">
+        <v>3</v>
+      </c>
+      <c r="H168">
+        <v>1</v>
+      </c>
+      <c r="I168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>250</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+      <c r="C169">
+        <v>9</v>
+      </c>
+      <c r="D169">
+        <v>3</v>
+      </c>
+      <c r="E169">
+        <v>5</v>
+      </c>
+      <c r="F169">
+        <v>1</v>
+      </c>
+      <c r="H169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>251</v>
+      </c>
+      <c r="C170">
+        <v>3</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+      <c r="E170">
+        <v>10</v>
+      </c>
+      <c r="G170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>252</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+      <c r="I171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>32</v>
+      </c>
+      <c r="B172">
+        <v>6</v>
+      </c>
+      <c r="C172">
+        <v>2</v>
+      </c>
+      <c r="D172">
+        <v>3</v>
+      </c>
+      <c r="E172">
+        <v>3</v>
+      </c>
+      <c r="F172">
+        <v>2</v>
+      </c>
+      <c r="G172">
+        <v>1</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>255</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="G173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>256</v>
+      </c>
+      <c r="B174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>257</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+      <c r="C175">
+        <v>2</v>
+      </c>
+      <c r="D175">
+        <v>2</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+      <c r="F175">
+        <v>2</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>258</v>
+      </c>
+      <c r="B176">
+        <v>3</v>
+      </c>
+      <c r="D176">
+        <v>1</v>
+      </c>
+      <c r="E176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>33</v>
+      </c>
+      <c r="B177">
+        <v>2</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+      <c r="F177">
+        <v>11</v>
+      </c>
+      <c r="G177">
+        <v>3</v>
+      </c>
+      <c r="H177">
+        <v>3</v>
+      </c>
+      <c r="I177">
+        <v>2</v>
+      </c>
+      <c r="J177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>76</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
+      <c r="H178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>265</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
+      <c r="F179">
+        <v>11</v>
+      </c>
+      <c r="G179">
+        <v>3</v>
+      </c>
+      <c r="I179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>269</v>
+      </c>
+      <c r="J180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>34</v>
+      </c>
+      <c r="B181">
+        <v>2</v>
+      </c>
+      <c r="C181">
+        <v>6</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+      <c r="F181">
+        <v>2</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>272</v>
+      </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
+      <c r="F182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>144</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>274</v>
+      </c>
+      <c r="B184">
+        <v>2</v>
+      </c>
+      <c r="C184">
+        <v>5</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>35</v>
+      </c>
+      <c r="B185">
+        <v>6</v>
+      </c>
+      <c r="C185">
+        <v>22</v>
+      </c>
+      <c r="D185">
+        <v>21</v>
+      </c>
+      <c r="E185">
+        <v>18</v>
+      </c>
+      <c r="F185">
+        <v>17</v>
+      </c>
+      <c r="G185">
+        <v>17</v>
+      </c>
+      <c r="H185">
+        <v>14</v>
+      </c>
+      <c r="I185">
+        <v>5</v>
+      </c>
+      <c r="J185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>276</v>
+      </c>
+      <c r="C186">
+        <v>3</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>277</v>
+      </c>
+      <c r="H187">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>278</v>
+      </c>
+      <c r="C188">
+        <v>16</v>
+      </c>
+      <c r="D188">
+        <v>20</v>
+      </c>
+      <c r="E188">
+        <v>14</v>
+      </c>
+      <c r="F188">
+        <v>6</v>
+      </c>
+      <c r="G188">
+        <v>10</v>
+      </c>
+      <c r="H188">
+        <v>9</v>
+      </c>
+      <c r="I188">
+        <v>2</v>
+      </c>
+      <c r="J188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>279</v>
+      </c>
+      <c r="F189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>281</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+      <c r="D190">
+        <v>1</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
+      <c r="F190">
+        <v>9</v>
+      </c>
+      <c r="H190">
+        <v>4</v>
+      </c>
+      <c r="I190">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>283</v>
+      </c>
+      <c r="B191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>284</v>
+      </c>
+      <c r="B192">
+        <v>2</v>
+      </c>
+      <c r="C192">
+        <v>2</v>
+      </c>
+      <c r="E192">
+        <v>2</v>
+      </c>
+      <c r="F192">
+        <v>1</v>
+      </c>
+      <c r="G192">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>285</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>54</v>
+      </c>
+      <c r="B194">
+        <v>14</v>
+      </c>
+      <c r="C194">
+        <v>15</v>
+      </c>
+      <c r="D194">
+        <v>17</v>
+      </c>
+      <c r="E194">
+        <v>33</v>
+      </c>
+      <c r="F194">
+        <v>13</v>
+      </c>
+      <c r="G194">
+        <v>32</v>
+      </c>
+      <c r="H194">
+        <v>45</v>
+      </c>
+      <c r="I194">
+        <v>23</v>
+      </c>
+      <c r="J194">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>288</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+      <c r="E195">
+        <v>4</v>
+      </c>
+      <c r="G195">
+        <v>1</v>
+      </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+      <c r="J195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>289</v>
+      </c>
+      <c r="E196">
+        <v>1</v>
+      </c>
+      <c r="G196">
+        <v>2</v>
+      </c>
+      <c r="H196">
+        <v>2</v>
+      </c>
+      <c r="I196">
+        <v>3</v>
+      </c>
+      <c r="J196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>155</v>
+      </c>
+      <c r="B197">
+        <v>5</v>
+      </c>
+      <c r="C197">
+        <v>3</v>
+      </c>
+      <c r="D197">
+        <v>6</v>
+      </c>
+      <c r="E197">
+        <v>12</v>
+      </c>
+      <c r="F197">
+        <v>1</v>
+      </c>
+      <c r="G197">
+        <v>10</v>
+      </c>
+      <c r="H197">
+        <v>23</v>
+      </c>
+      <c r="I197">
+        <v>10</v>
+      </c>
+      <c r="J197">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>290</v>
+      </c>
+      <c r="E198">
+        <v>1</v>
+      </c>
+      <c r="H198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>291</v>
+      </c>
+      <c r="B199">
+        <v>5</v>
+      </c>
+      <c r="C199">
+        <v>3</v>
+      </c>
+      <c r="D199">
+        <v>3</v>
+      </c>
+      <c r="E199">
+        <v>7</v>
+      </c>
+      <c r="F199">
+        <v>3</v>
+      </c>
+      <c r="G199">
+        <v>7</v>
+      </c>
+      <c r="H199">
+        <v>8</v>
+      </c>
+      <c r="I199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>292</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200">
+        <v>2</v>
+      </c>
+      <c r="D200">
+        <v>1</v>
+      </c>
+      <c r="H200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>294</v>
+      </c>
+      <c r="F201">
+        <v>1</v>
+      </c>
+      <c r="G201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>295</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>160</v>
+      </c>
+      <c r="F203">
+        <v>4</v>
+      </c>
+      <c r="G203">
+        <v>6</v>
+      </c>
+      <c r="H203">
+        <v>7</v>
+      </c>
+      <c r="I203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>296</v>
+      </c>
+      <c r="C204">
+        <v>5</v>
+      </c>
+      <c r="D204">
+        <v>5</v>
+      </c>
+      <c r="E204">
+        <v>5</v>
+      </c>
+      <c r="F204">
+        <v>4</v>
+      </c>
+      <c r="G204">
+        <v>4</v>
+      </c>
+      <c r="H204">
+        <v>2</v>
+      </c>
+      <c r="I204">
+        <v>5</v>
+      </c>
+      <c r="J204">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>297</v>
+      </c>
+      <c r="B205">
+        <v>2</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205">
+        <v>1</v>
+      </c>
+      <c r="E205">
+        <v>2</v>
+      </c>
+      <c r="G205">
+        <v>1</v>
+      </c>
+      <c r="H205">
+        <v>1</v>
+      </c>
+      <c r="J205">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>298</v>
+      </c>
+      <c r="E206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>299</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>65</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="F208">
+        <v>1</v>
+      </c>
+      <c r="G208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>300</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="G209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>301</v>
+      </c>
+      <c r="F210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>66</v>
+      </c>
+      <c r="B211">
+        <v>1</v>
+      </c>
+      <c r="F211">
+        <v>1</v>
+      </c>
+      <c r="I211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>302</v>
+      </c>
+      <c r="F212">
+        <v>1</v>
+      </c>
+      <c r="I212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>303</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8426F1EE-464A-0141-82A8-AB943FD732C5}">
   <dimension ref="A1:J281"/>
   <sheetViews>
@@ -37918,11 +41831,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D92F6C6-59A4-AB4D-BFB3-0F970DF4B773}">
   <dimension ref="A1:E439"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>

--- a/02_RAW-Data/ICBF_SRPA.xlsx
+++ b/02_RAW-Data/ICBF_SRPA.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Documents/GitHub/Ninez-YA/02_RAW-Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3979E80-2EE8-B54F-80C8-26BBCF779E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C26BE33-B7E6-8245-B255-A19C506463DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="3" xr2:uid="{4661A564-048E-C141-BA35-1075A9EF5C19}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27080" activeTab="4" xr2:uid="{4661A564-048E-C141-BA35-1075A9EF5C19}"/>
   </bookViews>
   <sheets>
     <sheet name="SRPA_1" sheetId="1" r:id="rId1"/>
     <sheet name="SRPA_2" sheetId="2" r:id="rId2"/>
     <sheet name="Punto_1" sheetId="4" r:id="rId3"/>
     <sheet name="trabajo" sheetId="7" r:id="rId4"/>
-    <sheet name="base" sheetId="5" r:id="rId5"/>
-    <sheet name="educacion" sheetId="6" r:id="rId6"/>
+    <sheet name="sexual" sheetId="8" r:id="rId5"/>
+    <sheet name="base" sheetId="5" r:id="rId6"/>
+    <sheet name="educacion" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4522" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4740" uniqueCount="312">
   <si>
     <t>Departamento</t>
   </si>
@@ -983,7 +984,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -991,16 +992,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8ED973"/>
+        <bgColor rgb="FFC0E6F5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1008,12 +1043,312 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -29435,7 +29770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F27053-BE83-0141-A2D4-BF8A47456F0A}">
   <dimension ref="A1:J213"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
@@ -33344,6 +33679,5246 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DBF9C7-A468-B34C-B99B-C7FEAB148CA7}">
+  <dimension ref="A1:J218"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2016</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E1" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F1" s="2">
+        <v>2019</v>
+      </c>
+      <c r="G1" s="2">
+        <v>2020</v>
+      </c>
+      <c r="H1" s="2">
+        <v>2021</v>
+      </c>
+      <c r="I1" s="2">
+        <v>2022</v>
+      </c>
+      <c r="J1" s="3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="5">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6">
+        <v>5</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6">
+        <v>2</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1</v>
+      </c>
+      <c r="J2" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="9">
+        <v>3</v>
+      </c>
+      <c r="C3" s="10">
+        <v>9</v>
+      </c>
+      <c r="D3" s="10">
+        <v>2</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10">
+        <v>5</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10">
+        <v>2</v>
+      </c>
+      <c r="I3" s="10">
+        <v>1</v>
+      </c>
+      <c r="J3" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6">
+        <v>42</v>
+      </c>
+      <c r="D5" s="6">
+        <v>56</v>
+      </c>
+      <c r="E5" s="6">
+        <v>24</v>
+      </c>
+      <c r="F5" s="6">
+        <v>30</v>
+      </c>
+      <c r="G5" s="6">
+        <v>56</v>
+      </c>
+      <c r="H5" s="6">
+        <v>64</v>
+      </c>
+      <c r="I5" s="6">
+        <v>32</v>
+      </c>
+      <c r="J5" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10">
+        <v>3</v>
+      </c>
+      <c r="D6" s="10">
+        <v>3</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10">
+        <v>3</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10">
+        <v>4</v>
+      </c>
+      <c r="I6" s="10">
+        <v>4</v>
+      </c>
+      <c r="J6" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="13">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14">
+        <v>1</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14">
+        <v>2</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14">
+        <v>1</v>
+      </c>
+      <c r="J7" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="13">
+        <v>1</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="13">
+        <v>5</v>
+      </c>
+      <c r="C9" s="14">
+        <v>21</v>
+      </c>
+      <c r="D9" s="14">
+        <v>26</v>
+      </c>
+      <c r="E9" s="14">
+        <v>7</v>
+      </c>
+      <c r="F9" s="14">
+        <v>2</v>
+      </c>
+      <c r="G9" s="14">
+        <v>1</v>
+      </c>
+      <c r="H9" s="14">
+        <v>3</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="13">
+        <v>2</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1</v>
+      </c>
+      <c r="D10" s="14">
+        <v>2</v>
+      </c>
+      <c r="E10" s="14">
+        <v>2</v>
+      </c>
+      <c r="F10" s="14">
+        <v>3</v>
+      </c>
+      <c r="G10" s="14">
+        <v>7</v>
+      </c>
+      <c r="H10" s="14">
+        <v>13</v>
+      </c>
+      <c r="I10" s="14">
+        <v>5</v>
+      </c>
+      <c r="J10" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14">
+        <v>16</v>
+      </c>
+      <c r="D11" s="14">
+        <v>20</v>
+      </c>
+      <c r="E11" s="14">
+        <v>13</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14">
+        <v>1</v>
+      </c>
+      <c r="G12" s="14">
+        <v>1</v>
+      </c>
+      <c r="H12" s="14">
+        <v>3</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14">
+        <v>1</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14">
+        <v>3</v>
+      </c>
+      <c r="H13" s="14">
+        <v>1</v>
+      </c>
+      <c r="I13" s="14">
+        <v>2</v>
+      </c>
+      <c r="J13" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="15"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14">
+        <v>1</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="15"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14">
+        <v>1</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="15"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14">
+        <v>1</v>
+      </c>
+      <c r="I17" s="14">
+        <v>1</v>
+      </c>
+      <c r="J17" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14">
+        <v>1</v>
+      </c>
+      <c r="I18" s="14"/>
+      <c r="J18" s="15"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14">
+        <v>7</v>
+      </c>
+      <c r="G19" s="14">
+        <v>33</v>
+      </c>
+      <c r="H19" s="14">
+        <v>33</v>
+      </c>
+      <c r="I19" s="14">
+        <v>8</v>
+      </c>
+      <c r="J19" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14">
+        <v>13</v>
+      </c>
+      <c r="G20" s="14">
+        <v>7</v>
+      </c>
+      <c r="H20" s="14">
+        <v>3</v>
+      </c>
+      <c r="I20" s="14">
+        <v>6</v>
+      </c>
+      <c r="J20" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="13">
+        <v>1</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14">
+        <v>1</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14">
+        <v>1</v>
+      </c>
+      <c r="H21" s="14">
+        <v>2</v>
+      </c>
+      <c r="I21" s="14">
+        <v>5</v>
+      </c>
+      <c r="J21" s="15"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1</v>
+      </c>
+      <c r="G22" s="6">
+        <v>2</v>
+      </c>
+      <c r="H22" s="6">
+        <v>4</v>
+      </c>
+      <c r="I22" s="6">
+        <v>2</v>
+      </c>
+      <c r="J22" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="9">
+        <v>1</v>
+      </c>
+      <c r="C23" s="10">
+        <v>1</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10">
+        <v>1</v>
+      </c>
+      <c r="F23" s="10">
+        <v>1</v>
+      </c>
+      <c r="G23" s="10">
+        <v>1</v>
+      </c>
+      <c r="H23" s="10">
+        <v>3</v>
+      </c>
+      <c r="I23" s="10">
+        <v>1</v>
+      </c>
+      <c r="J23" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14">
+        <v>1</v>
+      </c>
+      <c r="H24" s="14">
+        <v>1</v>
+      </c>
+      <c r="I24" s="14">
+        <v>1</v>
+      </c>
+      <c r="J24" s="15"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="5">
+        <v>29</v>
+      </c>
+      <c r="C26" s="6">
+        <v>27</v>
+      </c>
+      <c r="D26" s="6">
+        <v>9</v>
+      </c>
+      <c r="E26" s="6">
+        <v>12</v>
+      </c>
+      <c r="F26" s="6">
+        <v>15</v>
+      </c>
+      <c r="G26" s="6">
+        <v>19</v>
+      </c>
+      <c r="H26" s="6">
+        <v>16</v>
+      </c>
+      <c r="I26" s="6">
+        <v>14</v>
+      </c>
+      <c r="J26" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="9">
+        <v>1</v>
+      </c>
+      <c r="C27" s="10">
+        <v>2</v>
+      </c>
+      <c r="D27" s="10">
+        <v>1</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10">
+        <v>1</v>
+      </c>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="11"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="13">
+        <v>25</v>
+      </c>
+      <c r="C28" s="14">
+        <v>17</v>
+      </c>
+      <c r="D28" s="14">
+        <v>2</v>
+      </c>
+      <c r="E28" s="14">
+        <v>1</v>
+      </c>
+      <c r="F28" s="14">
+        <v>2</v>
+      </c>
+      <c r="G28" s="14">
+        <v>2</v>
+      </c>
+      <c r="H28" s="14">
+        <v>2</v>
+      </c>
+      <c r="I28" s="14">
+        <v>4</v>
+      </c>
+      <c r="J28" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="13">
+        <v>2</v>
+      </c>
+      <c r="C29" s="14">
+        <v>4</v>
+      </c>
+      <c r="D29" s="14">
+        <v>5</v>
+      </c>
+      <c r="E29" s="14">
+        <v>5</v>
+      </c>
+      <c r="F29" s="14">
+        <v>11</v>
+      </c>
+      <c r="G29" s="14">
+        <v>7</v>
+      </c>
+      <c r="H29" s="14">
+        <v>8</v>
+      </c>
+      <c r="I29" s="14">
+        <v>7</v>
+      </c>
+      <c r="J29" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14">
+        <v>2</v>
+      </c>
+      <c r="J30" s="15"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="13">
+        <v>1</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14">
+        <v>1</v>
+      </c>
+      <c r="E31" s="14">
+        <v>4</v>
+      </c>
+      <c r="F31" s="14">
+        <v>1</v>
+      </c>
+      <c r="G31" s="14">
+        <v>2</v>
+      </c>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="15"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14">
+        <v>1</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14">
+        <v>2</v>
+      </c>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14">
+        <v>2</v>
+      </c>
+      <c r="H32" s="14">
+        <v>2</v>
+      </c>
+      <c r="I32" s="14">
+        <v>1</v>
+      </c>
+      <c r="J32" s="15"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14">
+        <v>2</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14">
+        <v>6</v>
+      </c>
+      <c r="H33" s="14">
+        <v>4</v>
+      </c>
+      <c r="I33" s="14"/>
+      <c r="J33" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14">
+        <v>1</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="15"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="5">
+        <v>38</v>
+      </c>
+      <c r="C35" s="6">
+        <v>55</v>
+      </c>
+      <c r="D35" s="6">
+        <v>64</v>
+      </c>
+      <c r="E35" s="6">
+        <v>53</v>
+      </c>
+      <c r="F35" s="6">
+        <v>64</v>
+      </c>
+      <c r="G35" s="6">
+        <v>59</v>
+      </c>
+      <c r="H35" s="6">
+        <v>76</v>
+      </c>
+      <c r="I35" s="6">
+        <v>46</v>
+      </c>
+      <c r="J35" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10">
+        <v>2</v>
+      </c>
+      <c r="E36" s="10">
+        <v>1</v>
+      </c>
+      <c r="F36" s="10">
+        <v>2</v>
+      </c>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="14">
+        <v>5</v>
+      </c>
+      <c r="D37" s="14">
+        <v>3</v>
+      </c>
+      <c r="E37" s="14">
+        <v>2</v>
+      </c>
+      <c r="F37" s="14">
+        <v>6</v>
+      </c>
+      <c r="G37" s="14">
+        <v>1</v>
+      </c>
+      <c r="H37" s="14">
+        <v>8</v>
+      </c>
+      <c r="I37" s="14">
+        <v>8</v>
+      </c>
+      <c r="J37" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" s="13">
+        <v>2</v>
+      </c>
+      <c r="C38" s="14">
+        <v>6</v>
+      </c>
+      <c r="D38" s="14">
+        <v>4</v>
+      </c>
+      <c r="E38" s="14">
+        <v>3</v>
+      </c>
+      <c r="F38" s="14">
+        <v>1</v>
+      </c>
+      <c r="G38" s="14">
+        <v>2</v>
+      </c>
+      <c r="H38" s="14">
+        <v>3</v>
+      </c>
+      <c r="I38" s="14">
+        <v>4</v>
+      </c>
+      <c r="J38" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="13">
+        <v>4</v>
+      </c>
+      <c r="C39" s="14">
+        <v>6</v>
+      </c>
+      <c r="D39" s="14">
+        <v>9</v>
+      </c>
+      <c r="E39" s="14">
+        <v>11</v>
+      </c>
+      <c r="F39" s="14">
+        <v>23</v>
+      </c>
+      <c r="G39" s="14">
+        <v>19</v>
+      </c>
+      <c r="H39" s="14">
+        <v>20</v>
+      </c>
+      <c r="I39" s="14">
+        <v>11</v>
+      </c>
+      <c r="J39" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="13">
+        <v>2</v>
+      </c>
+      <c r="C40" s="14">
+        <v>5</v>
+      </c>
+      <c r="D40" s="14">
+        <v>5</v>
+      </c>
+      <c r="E40" s="14">
+        <v>3</v>
+      </c>
+      <c r="F40" s="14">
+        <v>2</v>
+      </c>
+      <c r="G40" s="14">
+        <v>2</v>
+      </c>
+      <c r="H40" s="14">
+        <v>1</v>
+      </c>
+      <c r="I40" s="14">
+        <v>4</v>
+      </c>
+      <c r="J40" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="13">
+        <v>1</v>
+      </c>
+      <c r="C41" s="14">
+        <v>1</v>
+      </c>
+      <c r="D41" s="14">
+        <v>6</v>
+      </c>
+      <c r="E41" s="14">
+        <v>2</v>
+      </c>
+      <c r="F41" s="14">
+        <v>1</v>
+      </c>
+      <c r="G41" s="14">
+        <v>4</v>
+      </c>
+      <c r="H41" s="14">
+        <v>4</v>
+      </c>
+      <c r="I41" s="14">
+        <v>2</v>
+      </c>
+      <c r="J41" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" s="13">
+        <v>6</v>
+      </c>
+      <c r="C42" s="14">
+        <v>5</v>
+      </c>
+      <c r="D42" s="14">
+        <v>3</v>
+      </c>
+      <c r="E42" s="14">
+        <v>4</v>
+      </c>
+      <c r="F42" s="14">
+        <v>4</v>
+      </c>
+      <c r="G42" s="14">
+        <v>4</v>
+      </c>
+      <c r="H42" s="14">
+        <v>2</v>
+      </c>
+      <c r="I42" s="14">
+        <v>1</v>
+      </c>
+      <c r="J42" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14">
+        <v>1</v>
+      </c>
+      <c r="I43" s="14">
+        <v>1</v>
+      </c>
+      <c r="J43" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="13">
+        <v>1</v>
+      </c>
+      <c r="C44" s="14">
+        <v>4</v>
+      </c>
+      <c r="D44" s="14">
+        <v>2</v>
+      </c>
+      <c r="E44" s="14">
+        <v>1</v>
+      </c>
+      <c r="F44" s="14">
+        <v>2</v>
+      </c>
+      <c r="G44" s="14">
+        <v>6</v>
+      </c>
+      <c r="H44" s="14">
+        <v>1</v>
+      </c>
+      <c r="I44" s="14">
+        <v>1</v>
+      </c>
+      <c r="J44" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" s="13">
+        <v>5</v>
+      </c>
+      <c r="C45" s="14">
+        <v>3</v>
+      </c>
+      <c r="D45" s="14">
+        <v>3</v>
+      </c>
+      <c r="E45" s="14">
+        <v>5</v>
+      </c>
+      <c r="F45" s="14">
+        <v>3</v>
+      </c>
+      <c r="G45" s="14">
+        <v>1</v>
+      </c>
+      <c r="H45" s="14">
+        <v>5</v>
+      </c>
+      <c r="I45" s="14">
+        <v>1</v>
+      </c>
+      <c r="J45" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" s="13">
+        <v>1</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14">
+        <v>1</v>
+      </c>
+      <c r="E46" s="14">
+        <v>3</v>
+      </c>
+      <c r="F46" s="14">
+        <v>3</v>
+      </c>
+      <c r="G46" s="14">
+        <v>3</v>
+      </c>
+      <c r="H46" s="14">
+        <v>6</v>
+      </c>
+      <c r="I46" s="14">
+        <v>3</v>
+      </c>
+      <c r="J46" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" s="13">
+        <v>1</v>
+      </c>
+      <c r="C47" s="14">
+        <v>1</v>
+      </c>
+      <c r="D47" s="14">
+        <v>3</v>
+      </c>
+      <c r="E47" s="14">
+        <v>3</v>
+      </c>
+      <c r="F47" s="14">
+        <v>2</v>
+      </c>
+      <c r="G47" s="14">
+        <v>2</v>
+      </c>
+      <c r="H47" s="14">
+        <v>4</v>
+      </c>
+      <c r="I47" s="14">
+        <v>3</v>
+      </c>
+      <c r="J47" s="15"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" s="13">
+        <v>1</v>
+      </c>
+      <c r="C48" s="14">
+        <v>2</v>
+      </c>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14">
+        <v>2</v>
+      </c>
+      <c r="I48" s="14">
+        <v>1</v>
+      </c>
+      <c r="J48" s="15"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" s="13">
+        <v>3</v>
+      </c>
+      <c r="C49" s="14">
+        <v>4</v>
+      </c>
+      <c r="D49" s="14">
+        <v>7</v>
+      </c>
+      <c r="E49" s="14">
+        <v>3</v>
+      </c>
+      <c r="F49" s="14">
+        <v>3</v>
+      </c>
+      <c r="G49" s="14">
+        <v>5</v>
+      </c>
+      <c r="H49" s="14">
+        <v>4</v>
+      </c>
+      <c r="I49" s="14">
+        <v>3</v>
+      </c>
+      <c r="J49" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" s="13">
+        <v>2</v>
+      </c>
+      <c r="C50" s="14">
+        <v>1</v>
+      </c>
+      <c r="D50" s="14">
+        <v>7</v>
+      </c>
+      <c r="E50" s="14">
+        <v>2</v>
+      </c>
+      <c r="F50" s="14">
+        <v>2</v>
+      </c>
+      <c r="G50" s="14">
+        <v>5</v>
+      </c>
+      <c r="H50" s="14">
+        <v>5</v>
+      </c>
+      <c r="I50" s="14"/>
+      <c r="J50" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" s="13">
+        <v>5</v>
+      </c>
+      <c r="C51" s="14">
+        <v>4</v>
+      </c>
+      <c r="D51" s="14">
+        <v>3</v>
+      </c>
+      <c r="E51" s="14">
+        <v>2</v>
+      </c>
+      <c r="F51" s="14">
+        <v>1</v>
+      </c>
+      <c r="G51" s="14">
+        <v>1</v>
+      </c>
+      <c r="H51" s="14">
+        <v>1</v>
+      </c>
+      <c r="I51" s="14">
+        <v>1</v>
+      </c>
+      <c r="J51" s="15"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B52" s="13">
+        <v>3</v>
+      </c>
+      <c r="C52" s="14">
+        <v>7</v>
+      </c>
+      <c r="D52" s="14">
+        <v>6</v>
+      </c>
+      <c r="E52" s="14">
+        <v>8</v>
+      </c>
+      <c r="F52" s="14">
+        <v>8</v>
+      </c>
+      <c r="G52" s="14">
+        <v>4</v>
+      </c>
+      <c r="H52" s="14">
+        <v>8</v>
+      </c>
+      <c r="I52" s="14">
+        <v>2</v>
+      </c>
+      <c r="J52" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53" s="13">
+        <v>1</v>
+      </c>
+      <c r="C53" s="14">
+        <v>1</v>
+      </c>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14">
+        <v>1</v>
+      </c>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14">
+        <v>1</v>
+      </c>
+      <c r="I53" s="14"/>
+      <c r="J53" s="15"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="5">
+        <v>16</v>
+      </c>
+      <c r="C54" s="6">
+        <v>22</v>
+      </c>
+      <c r="D54" s="6">
+        <v>22</v>
+      </c>
+      <c r="E54" s="6">
+        <v>24</v>
+      </c>
+      <c r="F54" s="6">
+        <v>51</v>
+      </c>
+      <c r="G54" s="6">
+        <v>39</v>
+      </c>
+      <c r="H54" s="6">
+        <v>26</v>
+      </c>
+      <c r="I54" s="6">
+        <v>17</v>
+      </c>
+      <c r="J54" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" s="9">
+        <v>2</v>
+      </c>
+      <c r="C55" s="10">
+        <v>1</v>
+      </c>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10">
+        <v>2</v>
+      </c>
+      <c r="G55" s="10">
+        <v>2</v>
+      </c>
+      <c r="H55" s="10">
+        <v>1</v>
+      </c>
+      <c r="I55" s="10"/>
+      <c r="J55" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B56" s="13">
+        <v>1</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14">
+        <v>2</v>
+      </c>
+      <c r="F56" s="14">
+        <v>11</v>
+      </c>
+      <c r="G56" s="14">
+        <v>3</v>
+      </c>
+      <c r="H56" s="14">
+        <v>1</v>
+      </c>
+      <c r="I56" s="14">
+        <v>1</v>
+      </c>
+      <c r="J56" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" s="13">
+        <v>11</v>
+      </c>
+      <c r="C57" s="14">
+        <v>16</v>
+      </c>
+      <c r="D57" s="14">
+        <v>19</v>
+      </c>
+      <c r="E57" s="14">
+        <v>18</v>
+      </c>
+      <c r="F57" s="14">
+        <v>29</v>
+      </c>
+      <c r="G57" s="14">
+        <v>27</v>
+      </c>
+      <c r="H57" s="14">
+        <v>17</v>
+      </c>
+      <c r="I57" s="14">
+        <v>12</v>
+      </c>
+      <c r="J57" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B58" s="13"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14">
+        <v>1</v>
+      </c>
+      <c r="E58" s="14">
+        <v>3</v>
+      </c>
+      <c r="F58" s="14">
+        <v>3</v>
+      </c>
+      <c r="G58" s="14">
+        <v>1</v>
+      </c>
+      <c r="H58" s="14">
+        <v>1</v>
+      </c>
+      <c r="I58" s="14">
+        <v>3</v>
+      </c>
+      <c r="J58" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59" s="13">
+        <v>1</v>
+      </c>
+      <c r="C59" s="14">
+        <v>3</v>
+      </c>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14">
+        <v>1</v>
+      </c>
+      <c r="F59" s="14">
+        <v>1</v>
+      </c>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" s="13">
+        <v>1</v>
+      </c>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14">
+        <v>1</v>
+      </c>
+      <c r="G60" s="14">
+        <v>1</v>
+      </c>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="15"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" s="13"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14">
+        <v>1</v>
+      </c>
+      <c r="G61" s="14">
+        <v>1</v>
+      </c>
+      <c r="H61" s="14">
+        <v>2</v>
+      </c>
+      <c r="I61" s="14">
+        <v>1</v>
+      </c>
+      <c r="J61" s="15"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62" s="13"/>
+      <c r="C62" s="14">
+        <v>2</v>
+      </c>
+      <c r="D62" s="14">
+        <v>2</v>
+      </c>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14">
+        <v>3</v>
+      </c>
+      <c r="G62" s="14">
+        <v>4</v>
+      </c>
+      <c r="H62" s="14">
+        <v>4</v>
+      </c>
+      <c r="I62" s="14"/>
+      <c r="J62" s="15"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" s="5">
+        <v>10</v>
+      </c>
+      <c r="C63" s="6">
+        <v>6</v>
+      </c>
+      <c r="D63" s="6">
+        <v>5</v>
+      </c>
+      <c r="E63" s="6">
+        <v>3</v>
+      </c>
+      <c r="F63" s="6">
+        <v>9</v>
+      </c>
+      <c r="G63" s="6">
+        <v>7</v>
+      </c>
+      <c r="H63" s="6">
+        <v>8</v>
+      </c>
+      <c r="I63" s="6">
+        <v>4</v>
+      </c>
+      <c r="J63" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B64" s="9">
+        <v>1</v>
+      </c>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="11"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" s="13">
+        <v>2</v>
+      </c>
+      <c r="C65" s="14">
+        <v>4</v>
+      </c>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14">
+        <v>1</v>
+      </c>
+      <c r="G65" s="14">
+        <v>1</v>
+      </c>
+      <c r="H65" s="14">
+        <v>4</v>
+      </c>
+      <c r="I65" s="14"/>
+      <c r="J65" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66" s="13"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14">
+        <v>1</v>
+      </c>
+      <c r="I66" s="14"/>
+      <c r="J66" s="15"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" s="13">
+        <v>1</v>
+      </c>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="15"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B68" s="13"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14">
+        <v>1</v>
+      </c>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14">
+        <v>1</v>
+      </c>
+      <c r="J68" s="15"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" s="13"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14">
+        <v>1</v>
+      </c>
+      <c r="F69" s="14">
+        <v>1</v>
+      </c>
+      <c r="G69" s="14">
+        <v>1</v>
+      </c>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14">
+        <v>1</v>
+      </c>
+      <c r="J69" s="15"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" s="13">
+        <v>6</v>
+      </c>
+      <c r="C70" s="14">
+        <v>2</v>
+      </c>
+      <c r="D70" s="14">
+        <v>5</v>
+      </c>
+      <c r="E70" s="14">
+        <v>2</v>
+      </c>
+      <c r="F70" s="14">
+        <v>6</v>
+      </c>
+      <c r="G70" s="14">
+        <v>5</v>
+      </c>
+      <c r="H70" s="14">
+        <v>3</v>
+      </c>
+      <c r="I70" s="14">
+        <v>2</v>
+      </c>
+      <c r="J70" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" s="5">
+        <v>19</v>
+      </c>
+      <c r="C71" s="6">
+        <v>13</v>
+      </c>
+      <c r="D71" s="6">
+        <v>13</v>
+      </c>
+      <c r="E71" s="6">
+        <v>12</v>
+      </c>
+      <c r="F71" s="6">
+        <v>20</v>
+      </c>
+      <c r="G71" s="6">
+        <v>30</v>
+      </c>
+      <c r="H71" s="6">
+        <v>38</v>
+      </c>
+      <c r="I71" s="6">
+        <v>25</v>
+      </c>
+      <c r="J71" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="9">
+        <v>1</v>
+      </c>
+      <c r="C72" s="10">
+        <v>1</v>
+      </c>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10">
+        <v>1</v>
+      </c>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10">
+        <v>2</v>
+      </c>
+      <c r="H72" s="10">
+        <v>1</v>
+      </c>
+      <c r="I72" s="10"/>
+      <c r="J72" s="11"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" s="13">
+        <v>13</v>
+      </c>
+      <c r="C73" s="14">
+        <v>10</v>
+      </c>
+      <c r="D73" s="14">
+        <v>10</v>
+      </c>
+      <c r="E73" s="14">
+        <v>9</v>
+      </c>
+      <c r="F73" s="14">
+        <v>17</v>
+      </c>
+      <c r="G73" s="14">
+        <v>26</v>
+      </c>
+      <c r="H73" s="14">
+        <v>34</v>
+      </c>
+      <c r="I73" s="14">
+        <v>24</v>
+      </c>
+      <c r="J73" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B74" s="13">
+        <v>2</v>
+      </c>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14">
+        <v>1</v>
+      </c>
+      <c r="E74" s="14">
+        <v>1</v>
+      </c>
+      <c r="F74" s="14">
+        <v>2</v>
+      </c>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14">
+        <v>1</v>
+      </c>
+      <c r="I74" s="14"/>
+      <c r="J74" s="15"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" s="13">
+        <v>3</v>
+      </c>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14">
+        <v>2</v>
+      </c>
+      <c r="E75" s="14">
+        <v>1</v>
+      </c>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14">
+        <v>1</v>
+      </c>
+      <c r="H75" s="14">
+        <v>1</v>
+      </c>
+      <c r="I75" s="14"/>
+      <c r="J75" s="15"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" s="13"/>
+      <c r="C76" s="14">
+        <v>1</v>
+      </c>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14">
+        <v>1</v>
+      </c>
+      <c r="G76" s="14">
+        <v>1</v>
+      </c>
+      <c r="H76" s="14">
+        <v>1</v>
+      </c>
+      <c r="I76" s="14">
+        <v>1</v>
+      </c>
+      <c r="J76" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B77" s="13"/>
+      <c r="C77" s="14">
+        <v>1</v>
+      </c>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="15"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B78" s="5">
+        <v>3</v>
+      </c>
+      <c r="C78" s="6">
+        <v>3</v>
+      </c>
+      <c r="D78" s="6">
+        <v>2</v>
+      </c>
+      <c r="E78" s="6">
+        <v>5</v>
+      </c>
+      <c r="F78" s="6">
+        <v>1</v>
+      </c>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6">
+        <v>2</v>
+      </c>
+      <c r="I78" s="6"/>
+      <c r="J78" s="7"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B79" s="9">
+        <v>2</v>
+      </c>
+      <c r="C79" s="10">
+        <v>3</v>
+      </c>
+      <c r="D79" s="10">
+        <v>2</v>
+      </c>
+      <c r="E79" s="10">
+        <v>5</v>
+      </c>
+      <c r="F79" s="10">
+        <v>1</v>
+      </c>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10">
+        <v>2</v>
+      </c>
+      <c r="I79" s="10"/>
+      <c r="J79" s="11"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B80" s="13">
+        <v>1</v>
+      </c>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="15"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B81" s="5">
+        <v>1</v>
+      </c>
+      <c r="C81" s="6">
+        <v>1</v>
+      </c>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6">
+        <v>2</v>
+      </c>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6">
+        <v>2</v>
+      </c>
+      <c r="H81" s="6">
+        <v>2</v>
+      </c>
+      <c r="I81" s="6">
+        <v>1</v>
+      </c>
+      <c r="J81" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B82" s="9">
+        <v>1</v>
+      </c>
+      <c r="C82" s="10">
+        <v>1</v>
+      </c>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10">
+        <v>2</v>
+      </c>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10">
+        <v>2</v>
+      </c>
+      <c r="H82" s="10">
+        <v>2</v>
+      </c>
+      <c r="I82" s="10">
+        <v>1</v>
+      </c>
+      <c r="J82" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B83" s="5">
+        <v>5</v>
+      </c>
+      <c r="C83" s="6">
+        <v>7</v>
+      </c>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6">
+        <v>2</v>
+      </c>
+      <c r="F83" s="6">
+        <v>11</v>
+      </c>
+      <c r="G83" s="6">
+        <v>5</v>
+      </c>
+      <c r="H83" s="6">
+        <v>8</v>
+      </c>
+      <c r="I83" s="6">
+        <v>5</v>
+      </c>
+      <c r="J83" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B84" s="9">
+        <v>1</v>
+      </c>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10">
+        <v>1</v>
+      </c>
+      <c r="I84" s="10">
+        <v>1</v>
+      </c>
+      <c r="J84" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B85" s="13"/>
+      <c r="C85" s="14">
+        <v>1</v>
+      </c>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14">
+        <v>2</v>
+      </c>
+      <c r="J85" s="15"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B86" s="13"/>
+      <c r="C86" s="14">
+        <v>1</v>
+      </c>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14">
+        <v>1</v>
+      </c>
+      <c r="I86" s="14"/>
+      <c r="J86" s="15"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B87" s="13"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14">
+        <v>1</v>
+      </c>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
+      <c r="J87" s="15"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B88" s="13"/>
+      <c r="C88" s="14">
+        <v>1</v>
+      </c>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14">
+        <v>1</v>
+      </c>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="14">
+        <v>2</v>
+      </c>
+      <c r="I88" s="14">
+        <v>2</v>
+      </c>
+      <c r="J88" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B89" s="13">
+        <v>4</v>
+      </c>
+      <c r="C89" s="14">
+        <v>4</v>
+      </c>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14">
+        <v>1</v>
+      </c>
+      <c r="F89" s="14">
+        <v>10</v>
+      </c>
+      <c r="G89" s="14">
+        <v>4</v>
+      </c>
+      <c r="H89" s="14">
+        <v>4</v>
+      </c>
+      <c r="I89" s="14"/>
+      <c r="J89" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B90" s="13"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14">
+        <v>1</v>
+      </c>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
+      <c r="J90" s="15"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B91" s="5">
+        <v>6</v>
+      </c>
+      <c r="C91" s="6">
+        <v>10</v>
+      </c>
+      <c r="D91" s="6">
+        <v>2</v>
+      </c>
+      <c r="E91" s="6">
+        <v>5</v>
+      </c>
+      <c r="F91" s="6">
+        <v>4</v>
+      </c>
+      <c r="G91" s="6">
+        <v>2</v>
+      </c>
+      <c r="H91" s="6">
+        <v>4</v>
+      </c>
+      <c r="I91" s="6">
+        <v>1</v>
+      </c>
+      <c r="J91" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B92" s="9">
+        <v>1</v>
+      </c>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10">
+        <v>1</v>
+      </c>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B93" s="13">
+        <v>1</v>
+      </c>
+      <c r="C93" s="14">
+        <v>1</v>
+      </c>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="14"/>
+      <c r="H93" s="14">
+        <v>2</v>
+      </c>
+      <c r="I93" s="14"/>
+      <c r="J93" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B94" s="13">
+        <v>3</v>
+      </c>
+      <c r="C94" s="14">
+        <v>2</v>
+      </c>
+      <c r="D94" s="14">
+        <v>1</v>
+      </c>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14">
+        <v>1</v>
+      </c>
+      <c r="G94" s="14"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="14"/>
+      <c r="J94" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B95" s="13">
+        <v>1</v>
+      </c>
+      <c r="C95" s="14">
+        <v>4</v>
+      </c>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14">
+        <v>3</v>
+      </c>
+      <c r="F95" s="14">
+        <v>3</v>
+      </c>
+      <c r="G95" s="14">
+        <v>1</v>
+      </c>
+      <c r="H95" s="14">
+        <v>2</v>
+      </c>
+      <c r="I95" s="14">
+        <v>1</v>
+      </c>
+      <c r="J95" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B96" s="13"/>
+      <c r="C96" s="14">
+        <v>3</v>
+      </c>
+      <c r="D96" s="14">
+        <v>1</v>
+      </c>
+      <c r="E96" s="14">
+        <v>2</v>
+      </c>
+      <c r="F96" s="14"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="14"/>
+      <c r="J96" s="15"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B97" s="5">
+        <v>1</v>
+      </c>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6">
+        <v>2</v>
+      </c>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6">
+        <v>1</v>
+      </c>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6">
+        <v>2</v>
+      </c>
+      <c r="I97" s="6">
+        <v>1</v>
+      </c>
+      <c r="J97" s="7"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B98" s="9">
+        <v>1</v>
+      </c>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="11"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B99" s="13"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14">
+        <v>2</v>
+      </c>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14">
+        <v>1</v>
+      </c>
+      <c r="G99" s="14"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="14">
+        <v>1</v>
+      </c>
+      <c r="J99" s="15"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B100" s="13"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="14">
+        <v>1</v>
+      </c>
+      <c r="I100" s="14"/>
+      <c r="J100" s="15"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B101" s="13"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="14">
+        <v>1</v>
+      </c>
+      <c r="I101" s="14"/>
+      <c r="J101" s="15"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B102" s="5">
+        <v>6</v>
+      </c>
+      <c r="C102" s="6">
+        <v>12</v>
+      </c>
+      <c r="D102" s="6">
+        <v>18</v>
+      </c>
+      <c r="E102" s="6">
+        <v>14</v>
+      </c>
+      <c r="F102" s="6">
+        <v>6</v>
+      </c>
+      <c r="G102" s="6">
+        <v>1</v>
+      </c>
+      <c r="H102" s="6">
+        <v>10</v>
+      </c>
+      <c r="I102" s="6">
+        <v>10</v>
+      </c>
+      <c r="J102" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B103" s="9">
+        <v>4</v>
+      </c>
+      <c r="C103" s="10">
+        <v>3</v>
+      </c>
+      <c r="D103" s="10">
+        <v>9</v>
+      </c>
+      <c r="E103" s="10">
+        <v>3</v>
+      </c>
+      <c r="F103" s="10">
+        <v>2</v>
+      </c>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10">
+        <v>7</v>
+      </c>
+      <c r="I103" s="10">
+        <v>8</v>
+      </c>
+      <c r="J103" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B104" s="13"/>
+      <c r="C104" s="14">
+        <v>3</v>
+      </c>
+      <c r="D104" s="14">
+        <v>1</v>
+      </c>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="14"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="14"/>
+      <c r="J104" s="15"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B105" s="13">
+        <v>1</v>
+      </c>
+      <c r="C105" s="14">
+        <v>2</v>
+      </c>
+      <c r="D105" s="14">
+        <v>3</v>
+      </c>
+      <c r="E105" s="14">
+        <v>1</v>
+      </c>
+      <c r="F105" s="14"/>
+      <c r="G105" s="14"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="14"/>
+      <c r="J105" s="15"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B106" s="13"/>
+      <c r="C106" s="14">
+        <v>1</v>
+      </c>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="14">
+        <v>1</v>
+      </c>
+      <c r="H106" s="14"/>
+      <c r="I106" s="14"/>
+      <c r="J106" s="15"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A107" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B107" s="13"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c r="G107" s="14"/>
+      <c r="H107" s="14">
+        <v>2</v>
+      </c>
+      <c r="I107" s="14"/>
+      <c r="J107" s="15"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A108" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B108" s="13"/>
+      <c r="C108" s="14">
+        <v>1</v>
+      </c>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14">
+        <v>4</v>
+      </c>
+      <c r="F108" s="14">
+        <v>1</v>
+      </c>
+      <c r="G108" s="14"/>
+      <c r="H108" s="14"/>
+      <c r="I108" s="14"/>
+      <c r="J108" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A109" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B109" s="13"/>
+      <c r="C109" s="14">
+        <v>2</v>
+      </c>
+      <c r="D109" s="14">
+        <v>4</v>
+      </c>
+      <c r="E109" s="14">
+        <v>5</v>
+      </c>
+      <c r="F109" s="14">
+        <v>2</v>
+      </c>
+      <c r="G109" s="14"/>
+      <c r="H109" s="14">
+        <v>1</v>
+      </c>
+      <c r="I109" s="14"/>
+      <c r="J109" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A110" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B110" s="13">
+        <v>1</v>
+      </c>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14">
+        <v>1</v>
+      </c>
+      <c r="E110" s="14">
+        <v>1</v>
+      </c>
+      <c r="F110" s="14">
+        <v>1</v>
+      </c>
+      <c r="G110" s="14"/>
+      <c r="H110" s="14"/>
+      <c r="I110" s="14">
+        <v>2</v>
+      </c>
+      <c r="J110" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A111" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B111" s="5">
+        <v>6</v>
+      </c>
+      <c r="C111" s="6">
+        <v>6</v>
+      </c>
+      <c r="D111" s="6">
+        <v>7</v>
+      </c>
+      <c r="E111" s="6">
+        <v>9</v>
+      </c>
+      <c r="F111" s="6">
+        <v>10</v>
+      </c>
+      <c r="G111" s="6">
+        <v>8</v>
+      </c>
+      <c r="H111" s="6">
+        <v>12</v>
+      </c>
+      <c r="I111" s="6">
+        <v>9</v>
+      </c>
+      <c r="J111" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A112" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B112" s="9"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10">
+        <v>1</v>
+      </c>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="10"/>
+      <c r="J112" s="11"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A113" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B113" s="13"/>
+      <c r="C113" s="14">
+        <v>1</v>
+      </c>
+      <c r="D113" s="14">
+        <v>1</v>
+      </c>
+      <c r="E113" s="14">
+        <v>4</v>
+      </c>
+      <c r="F113" s="14">
+        <v>4</v>
+      </c>
+      <c r="G113" s="14">
+        <v>3</v>
+      </c>
+      <c r="H113" s="14">
+        <v>2</v>
+      </c>
+      <c r="I113" s="14"/>
+      <c r="J113" s="15"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A114" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B114" s="13"/>
+      <c r="C114" s="14">
+        <v>2</v>
+      </c>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14">
+        <v>1</v>
+      </c>
+      <c r="F114" s="14">
+        <v>2</v>
+      </c>
+      <c r="G114" s="14">
+        <v>2</v>
+      </c>
+      <c r="H114" s="14">
+        <v>3</v>
+      </c>
+      <c r="I114" s="14"/>
+      <c r="J114" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A115" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B115" s="13"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14">
+        <v>1</v>
+      </c>
+      <c r="F115" s="14"/>
+      <c r="G115" s="14"/>
+      <c r="H115" s="14">
+        <v>1</v>
+      </c>
+      <c r="I115" s="14"/>
+      <c r="J115" s="15"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A116" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B116" s="13"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14">
+        <v>1</v>
+      </c>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c r="G116" s="14"/>
+      <c r="H116" s="14"/>
+      <c r="I116" s="14">
+        <v>1</v>
+      </c>
+      <c r="J116" s="15"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A117" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B117" s="13"/>
+      <c r="C117" s="14">
+        <v>1</v>
+      </c>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14">
+        <v>1</v>
+      </c>
+      <c r="F117" s="14"/>
+      <c r="G117" s="14"/>
+      <c r="H117" s="14"/>
+      <c r="I117" s="14"/>
+      <c r="J117" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A118" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B118" s="13">
+        <v>2</v>
+      </c>
+      <c r="C118" s="14">
+        <v>1</v>
+      </c>
+      <c r="D118" s="14">
+        <v>3</v>
+      </c>
+      <c r="E118" s="14">
+        <v>1</v>
+      </c>
+      <c r="F118" s="14">
+        <v>3</v>
+      </c>
+      <c r="G118" s="14">
+        <v>3</v>
+      </c>
+      <c r="H118" s="14">
+        <v>3</v>
+      </c>
+      <c r="I118" s="14">
+        <v>3</v>
+      </c>
+      <c r="J118" s="15"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B119" s="13"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c r="G119" s="14"/>
+      <c r="H119" s="14">
+        <v>1</v>
+      </c>
+      <c r="I119" s="14">
+        <v>2</v>
+      </c>
+      <c r="J119" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B120" s="13">
+        <v>1</v>
+      </c>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c r="G120" s="14"/>
+      <c r="H120" s="14">
+        <v>1</v>
+      </c>
+      <c r="I120" s="14"/>
+      <c r="J120" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A121" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B121" s="13"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c r="G121" s="14"/>
+      <c r="H121" s="14">
+        <v>1</v>
+      </c>
+      <c r="I121" s="14">
+        <v>3</v>
+      </c>
+      <c r="J121" s="15"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B122" s="13">
+        <v>3</v>
+      </c>
+      <c r="C122" s="14">
+        <v>1</v>
+      </c>
+      <c r="D122" s="14">
+        <v>1</v>
+      </c>
+      <c r="E122" s="14">
+        <v>1</v>
+      </c>
+      <c r="F122" s="14">
+        <v>1</v>
+      </c>
+      <c r="G122" s="14"/>
+      <c r="H122" s="14"/>
+      <c r="I122" s="14"/>
+      <c r="J122" s="15"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A123" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B123" s="5"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6">
+        <v>11</v>
+      </c>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6">
+        <v>1</v>
+      </c>
+      <c r="I123" s="6">
+        <v>1</v>
+      </c>
+      <c r="J123" s="7"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B124" s="9"/>
+      <c r="C124" s="10"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10">
+        <v>11</v>
+      </c>
+      <c r="G124" s="10"/>
+      <c r="H124" s="10">
+        <v>1</v>
+      </c>
+      <c r="I124" s="10">
+        <v>1</v>
+      </c>
+      <c r="J124" s="11"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B125" s="5">
+        <v>2</v>
+      </c>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6">
+        <v>1</v>
+      </c>
+      <c r="E125" s="6">
+        <v>1</v>
+      </c>
+      <c r="F125" s="6">
+        <v>3</v>
+      </c>
+      <c r="G125" s="6">
+        <v>5</v>
+      </c>
+      <c r="H125" s="6">
+        <v>1</v>
+      </c>
+      <c r="I125" s="6">
+        <v>2</v>
+      </c>
+      <c r="J125" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B126" s="9">
+        <v>2</v>
+      </c>
+      <c r="C126" s="10"/>
+      <c r="D126" s="10">
+        <v>1</v>
+      </c>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
+      <c r="H126" s="10">
+        <v>1</v>
+      </c>
+      <c r="I126" s="10">
+        <v>1</v>
+      </c>
+      <c r="J126" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A127" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B127" s="13"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14">
+        <v>1</v>
+      </c>
+      <c r="F127" s="14">
+        <v>3</v>
+      </c>
+      <c r="G127" s="14">
+        <v>5</v>
+      </c>
+      <c r="H127" s="14"/>
+      <c r="I127" s="14">
+        <v>1</v>
+      </c>
+      <c r="J127" s="15"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A128" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B128" s="5">
+        <v>8</v>
+      </c>
+      <c r="C128" s="6">
+        <v>9</v>
+      </c>
+      <c r="D128" s="6">
+        <v>9</v>
+      </c>
+      <c r="E128" s="6">
+        <v>8</v>
+      </c>
+      <c r="F128" s="6">
+        <v>5</v>
+      </c>
+      <c r="G128" s="6">
+        <v>6</v>
+      </c>
+      <c r="H128" s="6">
+        <v>6</v>
+      </c>
+      <c r="I128" s="6">
+        <v>4</v>
+      </c>
+      <c r="J128" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B129" s="9"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="10">
+        <v>1</v>
+      </c>
+      <c r="G129" s="10"/>
+      <c r="H129" s="10"/>
+      <c r="I129" s="10"/>
+      <c r="J129" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B130" s="13">
+        <v>6</v>
+      </c>
+      <c r="C130" s="14">
+        <v>5</v>
+      </c>
+      <c r="D130" s="14">
+        <v>6</v>
+      </c>
+      <c r="E130" s="14">
+        <v>6</v>
+      </c>
+      <c r="F130" s="14">
+        <v>4</v>
+      </c>
+      <c r="G130" s="14">
+        <v>4</v>
+      </c>
+      <c r="H130" s="14">
+        <v>2</v>
+      </c>
+      <c r="I130" s="14">
+        <v>1</v>
+      </c>
+      <c r="J130" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B131" s="13">
+        <v>2</v>
+      </c>
+      <c r="C131" s="14">
+        <v>3</v>
+      </c>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14">
+        <v>1</v>
+      </c>
+      <c r="F131" s="14"/>
+      <c r="G131" s="14"/>
+      <c r="H131" s="14">
+        <v>3</v>
+      </c>
+      <c r="I131" s="14"/>
+      <c r="J131" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B132" s="13"/>
+      <c r="C132" s="14">
+        <v>1</v>
+      </c>
+      <c r="D132" s="14">
+        <v>3</v>
+      </c>
+      <c r="E132" s="14">
+        <v>1</v>
+      </c>
+      <c r="F132" s="14"/>
+      <c r="G132" s="14">
+        <v>2</v>
+      </c>
+      <c r="H132" s="14">
+        <v>1</v>
+      </c>
+      <c r="I132" s="14">
+        <v>3</v>
+      </c>
+      <c r="J132" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A133" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B133" s="5">
+        <v>2</v>
+      </c>
+      <c r="C133" s="6">
+        <v>2</v>
+      </c>
+      <c r="D133" s="6">
+        <v>1</v>
+      </c>
+      <c r="E133" s="6">
+        <v>6</v>
+      </c>
+      <c r="F133" s="6">
+        <v>13</v>
+      </c>
+      <c r="G133" s="6">
+        <v>8</v>
+      </c>
+      <c r="H133" s="6">
+        <v>10</v>
+      </c>
+      <c r="I133" s="6">
+        <v>8</v>
+      </c>
+      <c r="J133" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B134" s="9">
+        <v>1</v>
+      </c>
+      <c r="C134" s="10">
+        <v>1</v>
+      </c>
+      <c r="D134" s="10"/>
+      <c r="E134" s="10"/>
+      <c r="F134" s="10"/>
+      <c r="G134" s="10">
+        <v>1</v>
+      </c>
+      <c r="H134" s="10">
+        <v>2</v>
+      </c>
+      <c r="I134" s="10">
+        <v>5</v>
+      </c>
+      <c r="J134" s="11"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A135" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B135" s="13">
+        <v>1</v>
+      </c>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14">
+        <v>2</v>
+      </c>
+      <c r="F135" s="14">
+        <v>9</v>
+      </c>
+      <c r="G135" s="14"/>
+      <c r="H135" s="14"/>
+      <c r="I135" s="14">
+        <v>2</v>
+      </c>
+      <c r="J135" s="15"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A136" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B136" s="13"/>
+      <c r="C136" s="14">
+        <v>1</v>
+      </c>
+      <c r="D136" s="14">
+        <v>1</v>
+      </c>
+      <c r="E136" s="14">
+        <v>4</v>
+      </c>
+      <c r="F136" s="14">
+        <v>4</v>
+      </c>
+      <c r="G136" s="14">
+        <v>7</v>
+      </c>
+      <c r="H136" s="14">
+        <v>8</v>
+      </c>
+      <c r="I136" s="14">
+        <v>1</v>
+      </c>
+      <c r="J136" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A137" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B137" s="5">
+        <v>4</v>
+      </c>
+      <c r="C137" s="6">
+        <v>3</v>
+      </c>
+      <c r="D137" s="6">
+        <v>13</v>
+      </c>
+      <c r="E137" s="6">
+        <v>9</v>
+      </c>
+      <c r="F137" s="6">
+        <v>15</v>
+      </c>
+      <c r="G137" s="6">
+        <v>13</v>
+      </c>
+      <c r="H137" s="6">
+        <v>7</v>
+      </c>
+      <c r="I137" s="6">
+        <v>5</v>
+      </c>
+      <c r="J137" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A138" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B138" s="9"/>
+      <c r="C138" s="10">
+        <v>2</v>
+      </c>
+      <c r="D138" s="10">
+        <v>4</v>
+      </c>
+      <c r="E138" s="10">
+        <v>2</v>
+      </c>
+      <c r="F138" s="10">
+        <v>1</v>
+      </c>
+      <c r="G138" s="10">
+        <v>1</v>
+      </c>
+      <c r="H138" s="10">
+        <v>1</v>
+      </c>
+      <c r="I138" s="10"/>
+      <c r="J138" s="11"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A139" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="B139" s="13"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14">
+        <v>1</v>
+      </c>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14">
+        <v>1</v>
+      </c>
+      <c r="G139" s="14"/>
+      <c r="H139" s="14"/>
+      <c r="I139" s="14"/>
+      <c r="J139" s="15"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A140" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B140" s="13"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="14">
+        <v>1</v>
+      </c>
+      <c r="G140" s="14">
+        <v>1</v>
+      </c>
+      <c r="H140" s="14">
+        <v>1</v>
+      </c>
+      <c r="I140" s="14"/>
+      <c r="J140" s="15"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A141" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B141" s="13"/>
+      <c r="C141" s="14"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="14">
+        <v>1</v>
+      </c>
+      <c r="F141" s="14">
+        <v>2</v>
+      </c>
+      <c r="G141" s="14">
+        <v>2</v>
+      </c>
+      <c r="H141" s="14"/>
+      <c r="I141" s="14"/>
+      <c r="J141" s="15"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B142" s="13"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="14"/>
+      <c r="G142" s="14">
+        <v>4</v>
+      </c>
+      <c r="H142" s="14">
+        <v>3</v>
+      </c>
+      <c r="I142" s="14">
+        <v>1</v>
+      </c>
+      <c r="J142" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A143" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B143" s="13"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="14"/>
+      <c r="F143" s="14"/>
+      <c r="G143" s="14">
+        <v>5</v>
+      </c>
+      <c r="H143" s="14">
+        <v>2</v>
+      </c>
+      <c r="I143" s="14">
+        <v>4</v>
+      </c>
+      <c r="J143" s="15"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A144" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B144" s="13">
+        <v>1</v>
+      </c>
+      <c r="C144" s="14"/>
+      <c r="D144" s="14">
+        <v>4</v>
+      </c>
+      <c r="E144" s="14">
+        <v>1</v>
+      </c>
+      <c r="F144" s="14"/>
+      <c r="G144" s="14"/>
+      <c r="H144" s="14"/>
+      <c r="I144" s="14"/>
+      <c r="J144" s="15"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A145" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B145" s="13">
+        <v>3</v>
+      </c>
+      <c r="C145" s="14">
+        <v>1</v>
+      </c>
+      <c r="D145" s="14">
+        <v>4</v>
+      </c>
+      <c r="E145" s="14">
+        <v>5</v>
+      </c>
+      <c r="F145" s="14">
+        <v>10</v>
+      </c>
+      <c r="G145" s="14"/>
+      <c r="H145" s="14"/>
+      <c r="I145" s="14"/>
+      <c r="J145" s="15"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A146" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B146" s="5">
+        <v>1</v>
+      </c>
+      <c r="C146" s="6">
+        <v>12</v>
+      </c>
+      <c r="D146" s="6">
+        <v>9</v>
+      </c>
+      <c r="E146" s="6">
+        <v>1</v>
+      </c>
+      <c r="F146" s="6">
+        <v>3</v>
+      </c>
+      <c r="G146" s="6">
+        <v>5</v>
+      </c>
+      <c r="H146" s="6">
+        <v>6</v>
+      </c>
+      <c r="I146" s="6">
+        <v>3</v>
+      </c>
+      <c r="J146" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A147" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B147" s="9"/>
+      <c r="C147" s="10">
+        <v>3</v>
+      </c>
+      <c r="D147" s="10"/>
+      <c r="E147" s="10"/>
+      <c r="F147" s="10"/>
+      <c r="G147" s="10"/>
+      <c r="H147" s="10">
+        <v>1</v>
+      </c>
+      <c r="I147" s="10"/>
+      <c r="J147" s="11"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A148" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B148" s="13"/>
+      <c r="C148" s="14">
+        <v>1</v>
+      </c>
+      <c r="D148" s="14"/>
+      <c r="E148" s="14">
+        <v>1</v>
+      </c>
+      <c r="F148" s="14"/>
+      <c r="G148" s="14">
+        <v>1</v>
+      </c>
+      <c r="H148" s="14"/>
+      <c r="I148" s="14">
+        <v>2</v>
+      </c>
+      <c r="J148" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A149" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B149" s="13">
+        <v>1</v>
+      </c>
+      <c r="C149" s="14">
+        <v>1</v>
+      </c>
+      <c r="D149" s="14"/>
+      <c r="E149" s="14"/>
+      <c r="F149" s="14"/>
+      <c r="G149" s="14"/>
+      <c r="H149" s="14"/>
+      <c r="I149" s="14"/>
+      <c r="J149" s="15"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A150" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B150" s="13"/>
+      <c r="C150" s="14">
+        <v>7</v>
+      </c>
+      <c r="D150" s="14">
+        <v>9</v>
+      </c>
+      <c r="E150" s="14"/>
+      <c r="F150" s="14">
+        <v>3</v>
+      </c>
+      <c r="G150" s="14">
+        <v>4</v>
+      </c>
+      <c r="H150" s="14">
+        <v>5</v>
+      </c>
+      <c r="I150" s="14">
+        <v>1</v>
+      </c>
+      <c r="J150" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A151" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B151" s="5">
+        <v>3</v>
+      </c>
+      <c r="C151" s="6">
+        <v>4</v>
+      </c>
+      <c r="D151" s="6">
+        <v>3</v>
+      </c>
+      <c r="E151" s="6">
+        <v>5</v>
+      </c>
+      <c r="F151" s="6">
+        <v>5</v>
+      </c>
+      <c r="G151" s="6">
+        <v>2</v>
+      </c>
+      <c r="H151" s="6">
+        <v>4</v>
+      </c>
+      <c r="I151" s="6">
+        <v>1</v>
+      </c>
+      <c r="J151" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A152" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B152" s="9"/>
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="10"/>
+      <c r="G152" s="10">
+        <v>1</v>
+      </c>
+      <c r="H152" s="10"/>
+      <c r="I152" s="10"/>
+      <c r="J152" s="11"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A153" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="B153" s="13">
+        <v>1</v>
+      </c>
+      <c r="C153" s="14"/>
+      <c r="D153" s="14"/>
+      <c r="E153" s="14"/>
+      <c r="F153" s="14"/>
+      <c r="G153" s="14"/>
+      <c r="H153" s="14"/>
+      <c r="I153" s="14"/>
+      <c r="J153" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A154" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B154" s="13"/>
+      <c r="C154" s="14"/>
+      <c r="D154" s="14"/>
+      <c r="E154" s="14">
+        <v>2</v>
+      </c>
+      <c r="F154" s="14"/>
+      <c r="G154" s="14"/>
+      <c r="H154" s="14"/>
+      <c r="I154" s="14"/>
+      <c r="J154" s="15"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A155" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="B155" s="13"/>
+      <c r="C155" s="14">
+        <v>2</v>
+      </c>
+      <c r="D155" s="14"/>
+      <c r="E155" s="14">
+        <v>1</v>
+      </c>
+      <c r="F155" s="14"/>
+      <c r="G155" s="14"/>
+      <c r="H155" s="14">
+        <v>1</v>
+      </c>
+      <c r="I155" s="14"/>
+      <c r="J155" s="15"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A156" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B156" s="13"/>
+      <c r="C156" s="14"/>
+      <c r="D156" s="14"/>
+      <c r="E156" s="14">
+        <v>1</v>
+      </c>
+      <c r="F156" s="14"/>
+      <c r="G156" s="14"/>
+      <c r="H156" s="14"/>
+      <c r="I156" s="14"/>
+      <c r="J156" s="15"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A157" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B157" s="13"/>
+      <c r="C157" s="14">
+        <v>2</v>
+      </c>
+      <c r="D157" s="14">
+        <v>3</v>
+      </c>
+      <c r="E157" s="14"/>
+      <c r="F157" s="14">
+        <v>5</v>
+      </c>
+      <c r="G157" s="14">
+        <v>1</v>
+      </c>
+      <c r="H157" s="14">
+        <v>3</v>
+      </c>
+      <c r="I157" s="14">
+        <v>1</v>
+      </c>
+      <c r="J157" s="15"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A158" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B158" s="13">
+        <v>2</v>
+      </c>
+      <c r="C158" s="14"/>
+      <c r="D158" s="14"/>
+      <c r="E158" s="14">
+        <v>1</v>
+      </c>
+      <c r="F158" s="14"/>
+      <c r="G158" s="14"/>
+      <c r="H158" s="14"/>
+      <c r="I158" s="14"/>
+      <c r="J158" s="15"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A159" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B159" s="5">
+        <v>5</v>
+      </c>
+      <c r="C159" s="6">
+        <v>1</v>
+      </c>
+      <c r="D159" s="6">
+        <v>2</v>
+      </c>
+      <c r="E159" s="6">
+        <v>1</v>
+      </c>
+      <c r="F159" s="6">
+        <v>12</v>
+      </c>
+      <c r="G159" s="6">
+        <v>19</v>
+      </c>
+      <c r="H159" s="6">
+        <v>17</v>
+      </c>
+      <c r="I159" s="6">
+        <v>17</v>
+      </c>
+      <c r="J159" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A160" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B160" s="9"/>
+      <c r="C160" s="10"/>
+      <c r="D160" s="10"/>
+      <c r="E160" s="10"/>
+      <c r="F160" s="10"/>
+      <c r="G160" s="10">
+        <v>1</v>
+      </c>
+      <c r="H160" s="10"/>
+      <c r="I160" s="10"/>
+      <c r="J160" s="11"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A161" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="B161" s="13">
+        <v>5</v>
+      </c>
+      <c r="C161" s="14">
+        <v>1</v>
+      </c>
+      <c r="D161" s="14">
+        <v>1</v>
+      </c>
+      <c r="E161" s="14">
+        <v>1</v>
+      </c>
+      <c r="F161" s="14">
+        <v>10</v>
+      </c>
+      <c r="G161" s="14">
+        <v>15</v>
+      </c>
+      <c r="H161" s="14">
+        <v>16</v>
+      </c>
+      <c r="I161" s="14">
+        <v>13</v>
+      </c>
+      <c r="J161" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A162" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="B162" s="13"/>
+      <c r="C162" s="14"/>
+      <c r="D162" s="14">
+        <v>1</v>
+      </c>
+      <c r="E162" s="14"/>
+      <c r="F162" s="14">
+        <v>1</v>
+      </c>
+      <c r="G162" s="14">
+        <v>1</v>
+      </c>
+      <c r="H162" s="14"/>
+      <c r="I162" s="14">
+        <v>1</v>
+      </c>
+      <c r="J162" s="15"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A163" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="B163" s="13"/>
+      <c r="C163" s="14"/>
+      <c r="D163" s="14"/>
+      <c r="E163" s="14"/>
+      <c r="F163" s="14">
+        <v>1</v>
+      </c>
+      <c r="G163" s="14">
+        <v>2</v>
+      </c>
+      <c r="H163" s="14">
+        <v>1</v>
+      </c>
+      <c r="I163" s="14">
+        <v>3</v>
+      </c>
+      <c r="J163" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A164" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B164" s="13"/>
+      <c r="C164" s="14"/>
+      <c r="D164" s="14"/>
+      <c r="E164" s="14"/>
+      <c r="F164" s="14"/>
+      <c r="G164" s="14"/>
+      <c r="H164" s="14"/>
+      <c r="I164" s="14"/>
+      <c r="J164" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A165" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B165" s="5">
+        <v>1</v>
+      </c>
+      <c r="C165" s="6">
+        <v>1</v>
+      </c>
+      <c r="D165" s="6">
+        <v>1</v>
+      </c>
+      <c r="E165" s="6"/>
+      <c r="F165" s="6"/>
+      <c r="G165" s="6">
+        <v>3</v>
+      </c>
+      <c r="H165" s="6">
+        <v>2</v>
+      </c>
+      <c r="I165" s="6">
+        <v>1</v>
+      </c>
+      <c r="J165" s="7"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A166" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B166" s="9">
+        <v>1</v>
+      </c>
+      <c r="C166" s="10">
+        <v>1</v>
+      </c>
+      <c r="D166" s="10"/>
+      <c r="E166" s="10"/>
+      <c r="F166" s="10"/>
+      <c r="G166" s="10"/>
+      <c r="H166" s="10">
+        <v>2</v>
+      </c>
+      <c r="I166" s="10">
+        <v>1</v>
+      </c>
+      <c r="J166" s="11"/>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A167" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B167" s="13"/>
+      <c r="C167" s="14"/>
+      <c r="D167" s="14"/>
+      <c r="E167" s="14"/>
+      <c r="F167" s="14"/>
+      <c r="G167" s="14">
+        <v>2</v>
+      </c>
+      <c r="H167" s="14"/>
+      <c r="I167" s="14"/>
+      <c r="J167" s="15"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A168" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B168" s="13"/>
+      <c r="C168" s="14"/>
+      <c r="D168" s="14">
+        <v>1</v>
+      </c>
+      <c r="E168" s="14"/>
+      <c r="F168" s="14"/>
+      <c r="G168" s="14">
+        <v>1</v>
+      </c>
+      <c r="H168" s="14"/>
+      <c r="I168" s="14"/>
+      <c r="J168" s="15"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A169" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B169" s="5">
+        <v>1</v>
+      </c>
+      <c r="C169" s="6">
+        <v>2</v>
+      </c>
+      <c r="D169" s="6">
+        <v>4</v>
+      </c>
+      <c r="E169" s="6">
+        <v>3</v>
+      </c>
+      <c r="F169" s="6">
+        <v>10</v>
+      </c>
+      <c r="G169" s="6">
+        <v>2</v>
+      </c>
+      <c r="H169" s="6">
+        <v>3</v>
+      </c>
+      <c r="I169" s="6">
+        <v>6</v>
+      </c>
+      <c r="J169" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A170" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B170" s="9"/>
+      <c r="C170" s="10"/>
+      <c r="D170" s="10"/>
+      <c r="E170" s="10">
+        <v>1</v>
+      </c>
+      <c r="F170" s="10">
+        <v>1</v>
+      </c>
+      <c r="G170" s="10"/>
+      <c r="H170" s="10"/>
+      <c r="I170" s="10">
+        <v>1</v>
+      </c>
+      <c r="J170" s="11"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A171" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="B171" s="13"/>
+      <c r="C171" s="14">
+        <v>1</v>
+      </c>
+      <c r="D171" s="14">
+        <v>3</v>
+      </c>
+      <c r="E171" s="14">
+        <v>2</v>
+      </c>
+      <c r="F171" s="14">
+        <v>9</v>
+      </c>
+      <c r="G171" s="14">
+        <v>1</v>
+      </c>
+      <c r="H171" s="14">
+        <v>3</v>
+      </c>
+      <c r="I171" s="14">
+        <v>3</v>
+      </c>
+      <c r="J171" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A172" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="B172" s="13">
+        <v>1</v>
+      </c>
+      <c r="C172" s="14">
+        <v>1</v>
+      </c>
+      <c r="D172" s="14">
+        <v>1</v>
+      </c>
+      <c r="E172" s="14"/>
+      <c r="F172" s="14"/>
+      <c r="G172" s="14">
+        <v>1</v>
+      </c>
+      <c r="H172" s="14"/>
+      <c r="I172" s="14">
+        <v>2</v>
+      </c>
+      <c r="J172" s="15"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A173" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B173" s="5">
+        <v>11</v>
+      </c>
+      <c r="C173" s="6">
+        <v>12</v>
+      </c>
+      <c r="D173" s="6">
+        <v>16</v>
+      </c>
+      <c r="E173" s="6">
+        <v>12</v>
+      </c>
+      <c r="F173" s="6">
+        <v>7</v>
+      </c>
+      <c r="G173" s="6">
+        <v>17</v>
+      </c>
+      <c r="H173" s="6">
+        <v>17</v>
+      </c>
+      <c r="I173" s="6">
+        <v>4</v>
+      </c>
+      <c r="J173" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A174" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B174" s="9"/>
+      <c r="C174" s="10"/>
+      <c r="D174" s="10"/>
+      <c r="E174" s="10"/>
+      <c r="F174" s="10"/>
+      <c r="G174" s="10">
+        <v>2</v>
+      </c>
+      <c r="H174" s="10">
+        <v>1</v>
+      </c>
+      <c r="I174" s="10">
+        <v>1</v>
+      </c>
+      <c r="J174" s="11"/>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A175" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="B175" s="13">
+        <v>3</v>
+      </c>
+      <c r="C175" s="14">
+        <v>1</v>
+      </c>
+      <c r="D175" s="14">
+        <v>1</v>
+      </c>
+      <c r="E175" s="14">
+        <v>1</v>
+      </c>
+      <c r="F175" s="14">
+        <v>2</v>
+      </c>
+      <c r="G175" s="14">
+        <v>1</v>
+      </c>
+      <c r="H175" s="14">
+        <v>1</v>
+      </c>
+      <c r="I175" s="14"/>
+      <c r="J175" s="15"/>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A176" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="B176" s="13">
+        <v>4</v>
+      </c>
+      <c r="C176" s="14">
+        <v>1</v>
+      </c>
+      <c r="D176" s="14"/>
+      <c r="E176" s="14">
+        <v>1</v>
+      </c>
+      <c r="F176" s="14">
+        <v>1</v>
+      </c>
+      <c r="G176" s="14"/>
+      <c r="H176" s="14"/>
+      <c r="I176" s="14"/>
+      <c r="J176" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A177" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="B177" s="13">
+        <v>3</v>
+      </c>
+      <c r="C177" s="14">
+        <v>9</v>
+      </c>
+      <c r="D177" s="14">
+        <v>14</v>
+      </c>
+      <c r="E177" s="14">
+        <v>10</v>
+      </c>
+      <c r="F177" s="14">
+        <v>4</v>
+      </c>
+      <c r="G177" s="14">
+        <v>14</v>
+      </c>
+      <c r="H177" s="14">
+        <v>15</v>
+      </c>
+      <c r="I177" s="14">
+        <v>3</v>
+      </c>
+      <c r="J177" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A178" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B178" s="13">
+        <v>1</v>
+      </c>
+      <c r="C178" s="14">
+        <v>1</v>
+      </c>
+      <c r="D178" s="14">
+        <v>1</v>
+      </c>
+      <c r="E178" s="14"/>
+      <c r="F178" s="14"/>
+      <c r="G178" s="14"/>
+      <c r="H178" s="14"/>
+      <c r="I178" s="14"/>
+      <c r="J178" s="15"/>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A179" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B179" s="5"/>
+      <c r="C179" s="6"/>
+      <c r="D179" s="6"/>
+      <c r="E179" s="6"/>
+      <c r="F179" s="6">
+        <v>1</v>
+      </c>
+      <c r="G179" s="6">
+        <v>2</v>
+      </c>
+      <c r="H179" s="6"/>
+      <c r="I179" s="6"/>
+      <c r="J179" s="7"/>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A180" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B180" s="9"/>
+      <c r="C180" s="10"/>
+      <c r="D180" s="10"/>
+      <c r="E180" s="10"/>
+      <c r="F180" s="10">
+        <v>1</v>
+      </c>
+      <c r="G180" s="10">
+        <v>2</v>
+      </c>
+      <c r="H180" s="10"/>
+      <c r="I180" s="10"/>
+      <c r="J180" s="11"/>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A181" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B181" s="5">
+        <v>1</v>
+      </c>
+      <c r="C181" s="6">
+        <v>3</v>
+      </c>
+      <c r="D181" s="6">
+        <v>1</v>
+      </c>
+      <c r="E181" s="6">
+        <v>3</v>
+      </c>
+      <c r="F181" s="6">
+        <v>5</v>
+      </c>
+      <c r="G181" s="6">
+        <v>7</v>
+      </c>
+      <c r="H181" s="6">
+        <v>11</v>
+      </c>
+      <c r="I181" s="6">
+        <v>3</v>
+      </c>
+      <c r="J181" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A182" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B182" s="9"/>
+      <c r="C182" s="10"/>
+      <c r="D182" s="10">
+        <v>1</v>
+      </c>
+      <c r="E182" s="10">
+        <v>1</v>
+      </c>
+      <c r="F182" s="10">
+        <v>1</v>
+      </c>
+      <c r="G182" s="10">
+        <v>1</v>
+      </c>
+      <c r="H182" s="10"/>
+      <c r="I182" s="10"/>
+      <c r="J182" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A183" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="B183" s="13">
+        <v>1</v>
+      </c>
+      <c r="C183" s="14">
+        <v>3</v>
+      </c>
+      <c r="D183" s="14"/>
+      <c r="E183" s="14">
+        <v>2</v>
+      </c>
+      <c r="F183" s="14">
+        <v>2</v>
+      </c>
+      <c r="G183" s="14">
+        <v>6</v>
+      </c>
+      <c r="H183" s="14">
+        <v>8</v>
+      </c>
+      <c r="I183" s="14">
+        <v>3</v>
+      </c>
+      <c r="J183" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A184" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="B184" s="13"/>
+      <c r="C184" s="14"/>
+      <c r="D184" s="14"/>
+      <c r="E184" s="14"/>
+      <c r="F184" s="14"/>
+      <c r="G184" s="14"/>
+      <c r="H184" s="14"/>
+      <c r="I184" s="14"/>
+      <c r="J184" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A185" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B185" s="13"/>
+      <c r="C185" s="14"/>
+      <c r="D185" s="14"/>
+      <c r="E185" s="14"/>
+      <c r="F185" s="14">
+        <v>2</v>
+      </c>
+      <c r="G185" s="14"/>
+      <c r="H185" s="14">
+        <v>1</v>
+      </c>
+      <c r="I185" s="14"/>
+      <c r="J185" s="15"/>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A186" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B186" s="13"/>
+      <c r="C186" s="14"/>
+      <c r="D186" s="14"/>
+      <c r="E186" s="14"/>
+      <c r="F186" s="14"/>
+      <c r="G186" s="14"/>
+      <c r="H186" s="14">
+        <v>2</v>
+      </c>
+      <c r="I186" s="14"/>
+      <c r="J186" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A187" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B187" s="5">
+        <v>1</v>
+      </c>
+      <c r="C187" s="6">
+        <v>3</v>
+      </c>
+      <c r="D187" s="6">
+        <v>4</v>
+      </c>
+      <c r="E187" s="6">
+        <v>1</v>
+      </c>
+      <c r="F187" s="6">
+        <v>8</v>
+      </c>
+      <c r="G187" s="6">
+        <v>2</v>
+      </c>
+      <c r="H187" s="6">
+        <v>12</v>
+      </c>
+      <c r="I187" s="6">
+        <v>1</v>
+      </c>
+      <c r="J187" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A188" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B188" s="9"/>
+      <c r="C188" s="10"/>
+      <c r="D188" s="10"/>
+      <c r="E188" s="10"/>
+      <c r="F188" s="10">
+        <v>1</v>
+      </c>
+      <c r="G188" s="10"/>
+      <c r="H188" s="10"/>
+      <c r="I188" s="10"/>
+      <c r="J188" s="11"/>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A189" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B189" s="13"/>
+      <c r="C189" s="14">
+        <v>2</v>
+      </c>
+      <c r="D189" s="14"/>
+      <c r="E189" s="14"/>
+      <c r="F189" s="14"/>
+      <c r="G189" s="14"/>
+      <c r="H189" s="14"/>
+      <c r="I189" s="14"/>
+      <c r="J189" s="15"/>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A190" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B190" s="13"/>
+      <c r="C190" s="14"/>
+      <c r="D190" s="14"/>
+      <c r="E190" s="14">
+        <v>1</v>
+      </c>
+      <c r="F190" s="14"/>
+      <c r="G190" s="14"/>
+      <c r="H190" s="14"/>
+      <c r="I190" s="14"/>
+      <c r="J190" s="15"/>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A191" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B191" s="13">
+        <v>1</v>
+      </c>
+      <c r="C191" s="14">
+        <v>1</v>
+      </c>
+      <c r="D191" s="14">
+        <v>4</v>
+      </c>
+      <c r="E191" s="14"/>
+      <c r="F191" s="14">
+        <v>7</v>
+      </c>
+      <c r="G191" s="14">
+        <v>2</v>
+      </c>
+      <c r="H191" s="14">
+        <v>12</v>
+      </c>
+      <c r="I191" s="14">
+        <v>1</v>
+      </c>
+      <c r="J191" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A192" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B192" s="5">
+        <v>5</v>
+      </c>
+      <c r="C192" s="6">
+        <v>8</v>
+      </c>
+      <c r="D192" s="6">
+        <v>3</v>
+      </c>
+      <c r="E192" s="6">
+        <v>5</v>
+      </c>
+      <c r="F192" s="6">
+        <v>2</v>
+      </c>
+      <c r="G192" s="6">
+        <v>13</v>
+      </c>
+      <c r="H192" s="6">
+        <v>17</v>
+      </c>
+      <c r="I192" s="6">
+        <v>9</v>
+      </c>
+      <c r="J192" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A193" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B193" s="9"/>
+      <c r="C193" s="10"/>
+      <c r="D193" s="10"/>
+      <c r="E193" s="10"/>
+      <c r="F193" s="10"/>
+      <c r="G193" s="10">
+        <v>2</v>
+      </c>
+      <c r="H193" s="10"/>
+      <c r="I193" s="10"/>
+      <c r="J193" s="11"/>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A194" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="B194" s="13"/>
+      <c r="C194" s="14"/>
+      <c r="D194" s="14"/>
+      <c r="E194" s="14"/>
+      <c r="F194" s="14"/>
+      <c r="G194" s="14">
+        <v>1</v>
+      </c>
+      <c r="H194" s="14">
+        <v>1</v>
+      </c>
+      <c r="I194" s="14"/>
+      <c r="J194" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A195" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="B195" s="13">
+        <v>1</v>
+      </c>
+      <c r="C195" s="14"/>
+      <c r="D195" s="14">
+        <v>1</v>
+      </c>
+      <c r="E195" s="14">
+        <v>1</v>
+      </c>
+      <c r="F195" s="14"/>
+      <c r="G195" s="14"/>
+      <c r="H195" s="14">
+        <v>2</v>
+      </c>
+      <c r="I195" s="14">
+        <v>1</v>
+      </c>
+      <c r="J195" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A196" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="B196" s="13">
+        <v>1</v>
+      </c>
+      <c r="C196" s="14"/>
+      <c r="D196" s="14"/>
+      <c r="E196" s="14"/>
+      <c r="F196" s="14"/>
+      <c r="G196" s="14">
+        <v>1</v>
+      </c>
+      <c r="H196" s="14"/>
+      <c r="I196" s="14"/>
+      <c r="J196" s="15"/>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A197" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="B197" s="13">
+        <v>3</v>
+      </c>
+      <c r="C197" s="14">
+        <v>8</v>
+      </c>
+      <c r="D197" s="14">
+        <v>2</v>
+      </c>
+      <c r="E197" s="14">
+        <v>3</v>
+      </c>
+      <c r="F197" s="14">
+        <v>2</v>
+      </c>
+      <c r="G197" s="14">
+        <v>9</v>
+      </c>
+      <c r="H197" s="14">
+        <v>13</v>
+      </c>
+      <c r="I197" s="14">
+        <v>4</v>
+      </c>
+      <c r="J197" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A198" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="B198" s="13"/>
+      <c r="C198" s="14"/>
+      <c r="D198" s="14"/>
+      <c r="E198" s="14">
+        <v>1</v>
+      </c>
+      <c r="F198" s="14"/>
+      <c r="G198" s="14"/>
+      <c r="H198" s="14"/>
+      <c r="I198" s="14">
+        <v>1</v>
+      </c>
+      <c r="J198" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A199" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="B199" s="13"/>
+      <c r="C199" s="14"/>
+      <c r="D199" s="14"/>
+      <c r="E199" s="14"/>
+      <c r="F199" s="14"/>
+      <c r="G199" s="14"/>
+      <c r="H199" s="14">
+        <v>1</v>
+      </c>
+      <c r="I199" s="14">
+        <v>3</v>
+      </c>
+      <c r="J199" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A200" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B200" s="5">
+        <v>13</v>
+      </c>
+      <c r="C200" s="6">
+        <v>24</v>
+      </c>
+      <c r="D200" s="6">
+        <v>17</v>
+      </c>
+      <c r="E200" s="6">
+        <v>21</v>
+      </c>
+      <c r="F200" s="6">
+        <v>27</v>
+      </c>
+      <c r="G200" s="6">
+        <v>27</v>
+      </c>
+      <c r="H200" s="6">
+        <v>42</v>
+      </c>
+      <c r="I200" s="6">
+        <v>28</v>
+      </c>
+      <c r="J200" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A201" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B201" s="9"/>
+      <c r="C201" s="10">
+        <v>2</v>
+      </c>
+      <c r="D201" s="10"/>
+      <c r="E201" s="10"/>
+      <c r="F201" s="10">
+        <v>2</v>
+      </c>
+      <c r="G201" s="10">
+        <v>1</v>
+      </c>
+      <c r="H201" s="10"/>
+      <c r="I201" s="10">
+        <v>2</v>
+      </c>
+      <c r="J201" s="11"/>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A202" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="B202" s="13"/>
+      <c r="C202" s="14">
+        <v>1</v>
+      </c>
+      <c r="D202" s="14"/>
+      <c r="E202" s="14"/>
+      <c r="F202" s="14">
+        <v>1</v>
+      </c>
+      <c r="G202" s="14"/>
+      <c r="H202" s="14"/>
+      <c r="I202" s="14"/>
+      <c r="J202" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A203" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="B203" s="13">
+        <v>7</v>
+      </c>
+      <c r="C203" s="14">
+        <v>7</v>
+      </c>
+      <c r="D203" s="14">
+        <v>5</v>
+      </c>
+      <c r="E203" s="14"/>
+      <c r="F203" s="14">
+        <v>1</v>
+      </c>
+      <c r="G203" s="14">
+        <v>2</v>
+      </c>
+      <c r="H203" s="14">
+        <v>4</v>
+      </c>
+      <c r="I203" s="14">
+        <v>8</v>
+      </c>
+      <c r="J203" s="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A204" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B204" s="13">
+        <v>3</v>
+      </c>
+      <c r="C204" s="14">
+        <v>8</v>
+      </c>
+      <c r="D204" s="14">
+        <v>8</v>
+      </c>
+      <c r="E204" s="14">
+        <v>8</v>
+      </c>
+      <c r="F204" s="14">
+        <v>7</v>
+      </c>
+      <c r="G204" s="14">
+        <v>9</v>
+      </c>
+      <c r="H204" s="14">
+        <v>4</v>
+      </c>
+      <c r="I204" s="14">
+        <v>4</v>
+      </c>
+      <c r="J204" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A205" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="B205" s="13"/>
+      <c r="C205" s="14"/>
+      <c r="D205" s="14"/>
+      <c r="E205" s="14"/>
+      <c r="F205" s="14">
+        <v>3</v>
+      </c>
+      <c r="G205" s="14">
+        <v>2</v>
+      </c>
+      <c r="H205" s="14">
+        <v>1</v>
+      </c>
+      <c r="I205" s="14"/>
+      <c r="J205" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A206" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="B206" s="13">
+        <v>1</v>
+      </c>
+      <c r="C206" s="14">
+        <v>2</v>
+      </c>
+      <c r="D206" s="14"/>
+      <c r="E206" s="14">
+        <v>4</v>
+      </c>
+      <c r="F206" s="14"/>
+      <c r="G206" s="14">
+        <v>1</v>
+      </c>
+      <c r="H206" s="14">
+        <v>4</v>
+      </c>
+      <c r="I206" s="14">
+        <v>3</v>
+      </c>
+      <c r="J206" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A207" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="B207" s="13"/>
+      <c r="C207" s="14"/>
+      <c r="D207" s="14">
+        <v>1</v>
+      </c>
+      <c r="E207" s="14">
+        <v>4</v>
+      </c>
+      <c r="F207" s="14">
+        <v>4</v>
+      </c>
+      <c r="G207" s="14">
+        <v>5</v>
+      </c>
+      <c r="H207" s="14">
+        <v>8</v>
+      </c>
+      <c r="I207" s="14">
+        <v>3</v>
+      </c>
+      <c r="J207" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A208" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B208" s="13"/>
+      <c r="C208" s="14"/>
+      <c r="D208" s="14"/>
+      <c r="E208" s="14"/>
+      <c r="F208" s="14">
+        <v>4</v>
+      </c>
+      <c r="G208" s="14">
+        <v>3</v>
+      </c>
+      <c r="H208" s="14">
+        <v>4</v>
+      </c>
+      <c r="I208" s="14">
+        <v>1</v>
+      </c>
+      <c r="J208" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A209" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="B209" s="13"/>
+      <c r="C209" s="14"/>
+      <c r="D209" s="14"/>
+      <c r="E209" s="14">
+        <v>1</v>
+      </c>
+      <c r="F209" s="14"/>
+      <c r="G209" s="14"/>
+      <c r="H209" s="14"/>
+      <c r="I209" s="14"/>
+      <c r="J209" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A210" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B210" s="13"/>
+      <c r="C210" s="14">
+        <v>2</v>
+      </c>
+      <c r="D210" s="14">
+        <v>2</v>
+      </c>
+      <c r="E210" s="14"/>
+      <c r="F210" s="14">
+        <v>2</v>
+      </c>
+      <c r="G210" s="14">
+        <v>3</v>
+      </c>
+      <c r="H210" s="14">
+        <v>7</v>
+      </c>
+      <c r="I210" s="14">
+        <v>1</v>
+      </c>
+      <c r="J210" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A211" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="B211" s="13">
+        <v>1</v>
+      </c>
+      <c r="C211" s="14">
+        <v>1</v>
+      </c>
+      <c r="D211" s="14">
+        <v>1</v>
+      </c>
+      <c r="E211" s="14"/>
+      <c r="F211" s="14">
+        <v>1</v>
+      </c>
+      <c r="G211" s="14">
+        <v>1</v>
+      </c>
+      <c r="H211" s="14">
+        <v>9</v>
+      </c>
+      <c r="I211" s="14">
+        <v>3</v>
+      </c>
+      <c r="J211" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A212" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="B212" s="13">
+        <v>1</v>
+      </c>
+      <c r="C212" s="14"/>
+      <c r="D212" s="14"/>
+      <c r="E212" s="14"/>
+      <c r="F212" s="14"/>
+      <c r="G212" s="14"/>
+      <c r="H212" s="14">
+        <v>1</v>
+      </c>
+      <c r="I212" s="14">
+        <v>2</v>
+      </c>
+      <c r="J212" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A213" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="B213" s="13"/>
+      <c r="C213" s="14">
+        <v>1</v>
+      </c>
+      <c r="D213" s="14"/>
+      <c r="E213" s="14">
+        <v>4</v>
+      </c>
+      <c r="F213" s="14">
+        <v>2</v>
+      </c>
+      <c r="G213" s="14"/>
+      <c r="H213" s="14"/>
+      <c r="I213" s="14"/>
+      <c r="J213" s="15"/>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A214" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="B214" s="13"/>
+      <c r="C214" s="14"/>
+      <c r="D214" s="14"/>
+      <c r="E214" s="14"/>
+      <c r="F214" s="14"/>
+      <c r="G214" s="14"/>
+      <c r="H214" s="14"/>
+      <c r="I214" s="14">
+        <v>1</v>
+      </c>
+      <c r="J214" s="15"/>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A215" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B215" s="5"/>
+      <c r="C215" s="6"/>
+      <c r="D215" s="6"/>
+      <c r="E215" s="6"/>
+      <c r="F215" s="6">
+        <v>3</v>
+      </c>
+      <c r="G215" s="6"/>
+      <c r="H215" s="6"/>
+      <c r="I215" s="6"/>
+      <c r="J215" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A216" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B216" s="9"/>
+      <c r="C216" s="10"/>
+      <c r="D216" s="10"/>
+      <c r="E216" s="10"/>
+      <c r="F216" s="10">
+        <v>3</v>
+      </c>
+      <c r="G216" s="10"/>
+      <c r="H216" s="10"/>
+      <c r="I216" s="10"/>
+      <c r="J216" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A217" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B217" s="5"/>
+      <c r="C217" s="6"/>
+      <c r="D217" s="6"/>
+      <c r="E217" s="6"/>
+      <c r="F217" s="6">
+        <v>2</v>
+      </c>
+      <c r="G217" s="6">
+        <v>1</v>
+      </c>
+      <c r="H217" s="6">
+        <v>2</v>
+      </c>
+      <c r="I217" s="6"/>
+      <c r="J217" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A218" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="B218" s="17"/>
+      <c r="C218" s="18"/>
+      <c r="D218" s="18"/>
+      <c r="E218" s="18"/>
+      <c r="F218" s="18">
+        <v>2</v>
+      </c>
+      <c r="G218" s="18">
+        <v>1</v>
+      </c>
+      <c r="H218" s="18">
+        <v>2</v>
+      </c>
+      <c r="I218" s="18"/>
+      <c r="J218" s="19">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8426F1EE-464A-0141-82A8-AB943FD732C5}">
   <dimension ref="A1:J281"/>
   <sheetViews>
@@ -41831,7 +47406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D92F6C6-59A4-AB4D-BFB3-0F970DF4B773}">
   <dimension ref="A1:E439"/>
   <sheetViews>
